--- a/data/1.reference/Copy of FOA mapping - old to new.xlsx
+++ b/data/1.reference/Copy of FOA mapping - old to new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\1.reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7930EB6E-84AD-4D7E-9282-F1555676BDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C1D46-0AEB-4FE4-AF77-AA10311F2B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15450" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
+    <workbookView xWindow="2250" yWindow="1845" windowWidth="28095" windowHeight="17625" xr2:uid="{20C6D451-20CA-4021-B91B-CEC706A760A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Old to new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">FoA_SDG!$A$1:$GX$117</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Old to new'!$B$1:$E$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Old to new'!$B$1:$F$137</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Old to new'!$A$1:$D$137</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="655">
   <si>
     <t>FoA Old</t>
   </si>
@@ -2006,12 +2006,90 @@
   <si>
     <t>Radiation protection of workers and public</t>
   </si>
+  <si>
+    <t>foa_nlo1</t>
+  </si>
+  <si>
+    <t>Ensure food safety and quality for protection of consumers and to facilitate international trade</t>
+  </si>
+  <si>
+    <t>Improve surveillance detection and control of insect pests of Agricultural and Veterinary  importance</t>
+  </si>
+  <si>
+    <t>Improved agricultural soil water and crop nutrition management</t>
+  </si>
+  <si>
+    <t>Increase crop productivity and resilience to climate change in agriculture</t>
+  </si>
+  <si>
+    <t>Increase livestock productivity</t>
+  </si>
+  <si>
+    <t>Inspect pest control</t>
+  </si>
+  <si>
+    <t>Improve surveillance detection and control of insect pests affecting human health</t>
+  </si>
+  <si>
+    <t>Increase effectiveness of nutrition programmes interventions and practices</t>
+  </si>
+  <si>
+    <t>Increase production and use of safe radioisotopes and radiopharmaceuticals for medical applications</t>
+  </si>
+  <si>
+    <t>Improve imaging and treatment capacity for cancer and other NCDs including on related safety and security considerations</t>
+  </si>
+  <si>
+    <t>Improve energy planning and inform policies to meet future energy needs</t>
+  </si>
+  <si>
+    <t>Increase knowledge on application and development of SMRs</t>
+  </si>
+  <si>
+    <t>Support clean energy production and safe introduction operation and lifetime management of nuclear power plant</t>
+  </si>
+  <si>
+    <t>Improve efficiency productivity quality and safety across industries using nuclear technologies</t>
+  </si>
+  <si>
+    <t>Improve quality reliability and comparability of measurement results obtained by radioisotopes techniques and safe use of nuclear instrumentation</t>
+  </si>
+  <si>
+    <t>Increase the safe and effective utilization operation and maintenance of research reactors</t>
+  </si>
+  <si>
+    <t>Improve integrated sustainable land and water management practices for agriculture and freshwater resources</t>
+  </si>
+  <si>
+    <t>Improve monitoring and assessment of pollution of land air coastal ecosystems and the oceans including from plastics</t>
+  </si>
+  <si>
+    <t>Enhance nuclear installation safety</t>
+  </si>
+  <si>
+    <t>Ensure transport safety</t>
+  </si>
+  <si>
+    <t>Establish or improve governmental and regulatory infrastructure to ensure nuclear  and radiation safety</t>
+  </si>
+  <si>
+    <t>Improve emergency preparedness &amp; response</t>
+  </si>
+  <si>
+    <t>Improve radioactive waste management</t>
+  </si>
+  <si>
+    <t>Strengthen radiation protection of workers patients  the public and the environment</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2194,6 +2272,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="24">
@@ -2879,7 +2962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3177,11 +3260,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3190,37 +3278,22 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3229,76 +3302,22 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3310,58 +3329,7 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3382,61 +3350,133 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3448,154 +3488,16 @@
     <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3640,6 +3542,192 @@
     <xf numFmtId="0" fontId="26" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4099,10 +4187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC4A7D0-D360-45A8-9B85-8B4137380814}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,11 +4198,11 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" customWidth="1"/>
-    <col min="5" max="5" width="59.7109375" customWidth="1"/>
+    <col min="4" max="5" width="83.7109375" customWidth="1"/>
+    <col min="6" max="6" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>562</v>
       </c>
@@ -4128,105 +4216,128 @@
         <v>619</v>
       </c>
       <c r="E1" s="106" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1" s="106" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="108">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E2" s="263" t="s">
+        <v>653</v>
+      </c>
+      <c r="F2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C3" s="108">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="263" t="s">
+        <v>643</v>
+      </c>
+      <c r="F3" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>654</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="108">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="263" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="263" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="108">
-        <v>32</v>
-      </c>
-      <c r="D5" s="109" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="108">
-        <v>33</v>
-      </c>
-      <c r="D6" s="109" t="s">
-        <v>340</v>
-      </c>
-      <c r="E6" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="263" t="s">
+        <v>620</v>
+      </c>
+      <c r="E6" s="263"/>
+      <c r="F6" s="263" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -4234,101 +4345,107 @@
       <c r="D8" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>12</v>
@@ -4336,33 +4453,35 @@
       <c r="D14" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>12</v>
@@ -4370,84 +4489,89 @@
       <c r="D16" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E16" s="107" t="s">
+      <c r="E16" s="107"/>
+      <c r="F16" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>12</v>
@@ -4455,33 +4579,35 @@
       <c r="D21" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="107"/>
+      <c r="F21" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="107" t="s">
+        <v>620</v>
+      </c>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>12</v>
@@ -4489,16 +4615,17 @@
       <c r="D23" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="107"/>
+      <c r="F23" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>12</v>
@@ -4506,16 +4633,17 @@
       <c r="D24" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E24" s="107" t="s">
+      <c r="E24" s="107"/>
+      <c r="F24" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
@@ -4523,16 +4651,17 @@
       <c r="D25" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E25" s="107" t="s">
+      <c r="E25" s="107"/>
+      <c r="F25" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>12</v>
@@ -4540,16 +4669,17 @@
       <c r="D26" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E26" s="107" t="s">
+      <c r="E26" s="107"/>
+      <c r="F26" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>12</v>
@@ -4557,33 +4687,35 @@
       <c r="D27" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E27" s="107" t="s">
+      <c r="E27" s="107"/>
+      <c r="F27" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+      <c r="E28" s="263"/>
+      <c r="F28" s="263" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>12</v>
@@ -4591,1121 +4723,1212 @@
       <c r="D29" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E29" s="107" t="s">
+      <c r="E29" s="107"/>
+      <c r="F29" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>654</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>620</v>
+        <v>4</v>
       </c>
       <c r="E30" s="107" t="s">
+        <v>644</v>
+      </c>
+      <c r="F30" s="264" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E31" s="107" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E32" s="107" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E33" s="107" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E34" s="107" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E35" s="107" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E36" s="107" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E37" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E38" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E39" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E40" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+      <c r="F40" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>620</v>
+        <v>9</v>
       </c>
       <c r="E41" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+      <c r="F41" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E42" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F42" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="263" t="s">
+        <v>641</v>
+      </c>
+      <c r="F46" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="263"/>
+      <c r="F47" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="263"/>
+      <c r="F48" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="263"/>
+      <c r="F49" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="263"/>
+      <c r="F50" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="263"/>
+      <c r="F51" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="263"/>
+      <c r="F52" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="263"/>
+      <c r="F56" s="263" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="107" t="s">
+      <c r="E57" s="107" t="s">
+        <v>642</v>
+      </c>
+      <c r="F57" s="107" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="107" t="s">
+      <c r="E58" s="263"/>
+      <c r="F58" s="263" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="107" t="s">
+      <c r="E59" s="107"/>
+      <c r="F59" s="107" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="2" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="107"/>
+      <c r="F60" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="107"/>
+      <c r="F62" s="107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="107" t="s">
+        <v>645</v>
+      </c>
+      <c r="F63" s="264" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="107"/>
+      <c r="F64" s="264" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="107"/>
+      <c r="F65" s="264" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E66" s="107"/>
+      <c r="F66" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E67" s="107"/>
+      <c r="F67" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E68" s="107"/>
+      <c r="F68" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E69" s="107"/>
+      <c r="F69" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="107" t="s">
+        <v>648</v>
+      </c>
+      <c r="F70" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E71" s="107"/>
+      <c r="F71" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E72" s="107"/>
+      <c r="F72" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="107"/>
+      <c r="F73" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E74" s="107"/>
+      <c r="F74" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E75" s="107"/>
+      <c r="F75" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" s="107"/>
+      <c r="F76" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E77" s="107"/>
+      <c r="F77" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E78" s="107" t="s">
+        <v>650</v>
+      </c>
+      <c r="F78" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E79" s="107"/>
+      <c r="F79" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E57" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E62" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E64" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E66" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E71" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E75" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="107" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E77" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E78" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E79" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>183</v>
+        <v>628</v>
       </c>
       <c r="E80" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+      <c r="F80" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="E81" s="107"/>
+      <c r="F81" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>188</v>
+        <v>279</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E82" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="E82" s="107"/>
+      <c r="F82" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E83" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+      <c r="E83" s="107"/>
+      <c r="F83" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>170</v>
+        <v>301</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>171</v>
+        <v>302</v>
       </c>
       <c r="E84" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="F84" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="E85" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="F85" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E86" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E86" s="107"/>
+      <c r="F86" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E87" s="107"/>
+      <c r="F87" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E88" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E88" s="107"/>
+      <c r="F88" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="E89" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+      <c r="F89" s="107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E90" s="107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E90" s="107"/>
+      <c r="F90" s="107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E91" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>337</v>
+        <v>626</v>
       </c>
       <c r="E92" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+      <c r="F92" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="E93" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="F93" s="107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E94" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="E94" s="107"/>
+      <c r="F94" s="107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>220</v>
@@ -5713,135 +5936,147 @@
       <c r="D95" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E95" s="107" t="s">
+      <c r="E95" s="107"/>
+      <c r="F95" s="107" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E96" t="s">
+        <v>623</v>
+      </c>
+      <c r="E96" s="263" t="s">
+        <v>643</v>
+      </c>
+      <c r="F96" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E97" s="263"/>
+      <c r="F97" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E98" s="107"/>
+      <c r="F98" s="264" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E99" s="107"/>
+      <c r="F99" s="264" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E100" s="107"/>
+      <c r="F100" s="264" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="107" t="s">
+        <v>652</v>
+      </c>
+      <c r="F101" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E97" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="107"/>
+      <c r="F102" s="264" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E98" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E99" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E100" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E101" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E102" s="107" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>103</v>
@@ -5849,590 +6084,666 @@
       <c r="D103" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="263"/>
+      <c r="F103" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E104" s="107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E104" s="107"/>
+      <c r="F104" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>240</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E105" s="107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="E105" s="107"/>
+      <c r="F105" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" s="107"/>
+      <c r="F106" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E107" s="107"/>
+      <c r="F107" s="264" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" s="263"/>
+      <c r="F108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E109" s="263"/>
+      <c r="F109" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E110" s="263"/>
+      <c r="F110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E111" s="107" t="s">
+        <v>633</v>
+      </c>
+      <c r="F111" s="107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" s="107" t="s">
+        <v>632</v>
+      </c>
+      <c r="F112" s="107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" s="107" t="s">
+        <v>634</v>
+      </c>
+      <c r="F113" s="107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114" s="263"/>
+      <c r="F114" s="263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E115" s="263" t="s">
+        <v>631</v>
+      </c>
+      <c r="F115" s="263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E116" s="265" t="s">
+        <v>630</v>
+      </c>
+      <c r="F116" s="263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E117" s="263"/>
+      <c r="F117" s="263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E118" s="263"/>
+      <c r="F118" s="263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E119" s="263"/>
+      <c r="F119" s="263" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E120" s="263" t="s">
+        <v>639</v>
+      </c>
+      <c r="F120" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E121" s="263" t="s">
+        <v>639</v>
+      </c>
+      <c r="F121" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="263"/>
+      <c r="F122" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E123" s="263"/>
+      <c r="F123" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E124" s="263"/>
+      <c r="F124" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E125" s="263" t="s">
+        <v>638</v>
+      </c>
+      <c r="F125" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E126" s="263"/>
+      <c r="F126" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E127" s="263"/>
+      <c r="F127" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E128" s="263"/>
+      <c r="F128" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E129" s="263"/>
+      <c r="F129" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E130" s="263"/>
+      <c r="F130" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E131" s="263"/>
+      <c r="F131" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E132" s="263" t="s">
+        <v>639</v>
+      </c>
+      <c r="F132" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E133" s="263"/>
+      <c r="F133" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E106" s="107" t="s">
+      <c r="E134" s="263"/>
+      <c r="F134" s="263" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E107" s="107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E108" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E109" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E110" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E111" s="107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E112" s="107" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="E113" s="107" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E114" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="E115" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E116" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E117" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E118" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E119" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E120" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E121" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E122" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E123" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E124" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="E125" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E126" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E127" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E128" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E129" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E130" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E131" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E132" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="E133" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E134" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>307</v>
+        <v>209</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>308</v>
+        <v>210</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E135" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="E135" s="263" t="s">
+        <v>637</v>
+      </c>
+      <c r="F135" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>309</v>
+        <v>212</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="E136" s="263"/>
+      <c r="F136" s="263" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>312</v>
+        <v>215</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E137" s="107" t="s">
-        <v>621</v>
+        <v>337</v>
+      </c>
+      <c r="E137" s="107"/>
+      <c r="F137" s="107" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="266" t="s">
+        <v>654</v>
+      </c>
+      <c r="B138" s="267"/>
+      <c r="C138" s="267">
+        <v>23</v>
+      </c>
+      <c r="D138" s="268" t="s">
+        <v>635</v>
+      </c>
+      <c r="E138" s="267" t="s">
+        <v>636</v>
+      </c>
+      <c r="F138" s="107" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E137" xr:uid="{ABC4A7D0-D360-45A8-9B85-8B4137380814}"/>
+  <autoFilter ref="B1:F137" xr:uid="{ABC4A7D0-D360-45A8-9B85-8B4137380814}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F137">
+    <sortCondition ref="C2:C137"/>
+  </sortState>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7227,22 +7538,22 @@
       </c>
     </row>
     <row r="4" spans="1:206" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="119" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="119" t="s">
         <v>549</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="129" t="s">
         <v>550</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="129" t="s">
         <v>434</v>
       </c>
-      <c r="E4" s="153" t="s">
+      <c r="E4" s="131" t="s">
         <v>433</v>
       </c>
-      <c r="F4" s="151" t="s">
+      <c r="F4" s="129" t="s">
         <v>458</v>
       </c>
       <c r="G4" s="88" t="s">
@@ -7250,12 +7561,12 @@
       </c>
     </row>
     <row r="5" spans="1:206" s="17" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="167"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="125"/>
       <c r="G5" s="88" t="s">
         <v>430</v>
       </c>
@@ -7498,22 +7809,22 @@
       <c r="GX7" s="9"/>
     </row>
     <row r="8" spans="1:206" s="41" customFormat="1" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="172" t="s">
+      <c r="A8" s="133" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="172" t="s">
+      <c r="B8" s="133" t="s">
         <v>544</v>
       </c>
-      <c r="C8" s="174" t="s">
+      <c r="C8" s="135" t="s">
         <v>543</v>
       </c>
-      <c r="D8" s="174" t="s">
+      <c r="D8" s="135" t="s">
         <v>535</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="137" t="s">
         <v>534</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="135" t="s">
         <v>533</v>
       </c>
       <c r="G8" s="67" t="s">
@@ -7720,12 +8031,12 @@
       <c r="GX8" s="9"/>
     </row>
     <row r="9" spans="1:206" s="41" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="177"/>
-      <c r="F9" s="175"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="136"/>
       <c r="G9" s="67" t="s">
         <v>531</v>
       </c>
@@ -10530,22 +10841,22 @@
       <c r="GX21" s="9"/>
     </row>
     <row r="22" spans="1:206" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="123" t="s">
         <v>359</v>
       </c>
-      <c r="B22" s="161" t="s">
+      <c r="B22" s="123" t="s">
         <v>525</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="124" t="s">
         <v>527</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="124" t="s">
         <v>364</v>
       </c>
-      <c r="E22" s="163" t="s">
+      <c r="E22" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="F22" s="162" t="s">
+      <c r="F22" s="124" t="s">
         <v>449</v>
       </c>
       <c r="G22" s="87" t="s">
@@ -10553,12 +10864,12 @@
       </c>
     </row>
     <row r="23" spans="1:206" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="167"/>
+      <c r="A23" s="120"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="125"/>
       <c r="G23" s="87" t="s">
         <v>360</v>
       </c>
@@ -11455,22 +11766,22 @@
       <c r="GX28" s="9"/>
     </row>
     <row r="29" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="121" t="s">
         <v>375</v>
       </c>
-      <c r="B29" s="125" t="s">
+      <c r="B29" s="121" t="s">
         <v>517</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="140" t="s">
         <v>516</v>
       </c>
-      <c r="D29" s="127" t="s">
+      <c r="D29" s="140" t="s">
         <v>372</v>
       </c>
-      <c r="E29" s="129" t="s">
+      <c r="E29" s="142" t="s">
         <v>371</v>
       </c>
-      <c r="F29" s="127" t="s">
+      <c r="F29" s="140" t="s">
         <v>370</v>
       </c>
       <c r="G29" s="76" t="s">
@@ -11677,12 +11988,12 @@
       <c r="GX29" s="9"/>
     </row>
     <row r="30" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="128"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="141"/>
       <c r="G30" s="76" t="s">
         <v>368</v>
       </c>
@@ -12323,22 +12634,22 @@
       <c r="GX32" s="9"/>
     </row>
     <row r="33" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="144" t="s">
         <v>461</v>
       </c>
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="144" t="s">
         <v>504</v>
       </c>
-      <c r="C33" s="170" t="s">
+      <c r="C33" s="145" t="s">
         <v>510</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="145" t="s">
         <v>493</v>
       </c>
-      <c r="E33" s="171" t="s">
+      <c r="E33" s="146" t="s">
         <v>492</v>
       </c>
-      <c r="F33" s="170" t="s">
+      <c r="F33" s="145" t="s">
         <v>491</v>
       </c>
       <c r="G33" s="32" t="s">
@@ -12545,12 +12856,12 @@
       <c r="GX33" s="9"/>
     </row>
     <row r="34" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="166"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="164"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="110"/>
       <c r="G34" s="27" t="s">
         <v>489</v>
       </c>
@@ -12755,22 +13066,22 @@
       <c r="GX34" s="9"/>
     </row>
     <row r="35" spans="1:206" s="25" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="109" t="s">
         <v>461</v>
       </c>
-      <c r="B35" s="166" t="s">
+      <c r="B35" s="109" t="s">
         <v>504</v>
       </c>
-      <c r="C35" s="164" t="s">
+      <c r="C35" s="110" t="s">
         <v>509</v>
       </c>
-      <c r="D35" s="164" t="s">
+      <c r="D35" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="E35" s="165" t="s">
+      <c r="E35" s="147" t="s">
         <v>508</v>
       </c>
-      <c r="F35" s="164" t="s">
+      <c r="F35" s="110" t="s">
         <v>507</v>
       </c>
       <c r="G35" s="27" t="s">
@@ -12977,12 +13288,12 @@
       <c r="GX35" s="9"/>
     </row>
     <row r="36" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="166"/>
-      <c r="B36" s="166"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="164"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="110"/>
       <c r="G36" s="27" t="s">
         <v>505</v>
       </c>
@@ -13855,16 +14166,16 @@
       <c r="B40" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="C40" s="164" t="s">
+      <c r="C40" s="110" t="s">
         <v>495</v>
       </c>
-      <c r="D40" s="164" t="s">
+      <c r="D40" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="E40" s="165" t="s">
+      <c r="E40" s="147" t="s">
         <v>433</v>
       </c>
-      <c r="F40" s="164" t="s">
+      <c r="F40" s="110" t="s">
         <v>458</v>
       </c>
       <c r="G40" s="27" t="s">
@@ -14077,10 +14388,10 @@
       <c r="B41" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="C41" s="164"/>
-      <c r="D41" s="164"/>
-      <c r="E41" s="165"/>
-      <c r="F41" s="164"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="110"/>
       <c r="G41" s="27" t="s">
         <v>430</v>
       </c>
@@ -14291,16 +14602,16 @@
       <c r="B42" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="C42" s="164" t="s">
+      <c r="C42" s="110" t="s">
         <v>494</v>
       </c>
-      <c r="D42" s="164" t="s">
+      <c r="D42" s="110" t="s">
         <v>493</v>
       </c>
-      <c r="E42" s="165" t="s">
+      <c r="E42" s="147" t="s">
         <v>492</v>
       </c>
-      <c r="F42" s="164" t="s">
+      <c r="F42" s="110" t="s">
         <v>491</v>
       </c>
       <c r="G42" s="27" t="s">
@@ -14513,10 +14824,10 @@
       <c r="B43" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="C43" s="164"/>
-      <c r="D43" s="164"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="164"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="110"/>
       <c r="G43" s="27" t="s">
         <v>489</v>
       </c>
@@ -14721,22 +15032,22 @@
       <c r="GX43" s="9"/>
     </row>
     <row r="44" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="166" t="s">
+      <c r="A44" s="109" t="s">
         <v>461</v>
       </c>
-      <c r="B44" s="166" t="s">
+      <c r="B44" s="109" t="s">
         <v>460</v>
       </c>
-      <c r="C44" s="164" t="s">
+      <c r="C44" s="110" t="s">
         <v>488</v>
       </c>
-      <c r="D44" s="164" t="s">
+      <c r="D44" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="E44" s="165" t="s">
+      <c r="E44" s="147" t="s">
         <v>433</v>
       </c>
-      <c r="F44" s="164" t="s">
+      <c r="F44" s="110" t="s">
         <v>458</v>
       </c>
       <c r="G44" s="27" t="s">
@@ -14943,12 +15254,12 @@
       <c r="GX44" s="9"/>
     </row>
     <row r="45" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="166"/>
-      <c r="B45" s="166"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="164"/>
-      <c r="E45" s="165"/>
-      <c r="F45" s="164"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="110"/>
       <c r="G45" s="27" t="s">
         <v>430</v>
       </c>
@@ -15597,22 +15908,22 @@
       <c r="GX47" s="9"/>
     </row>
     <row r="48" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="166" t="s">
+      <c r="A48" s="109" t="s">
         <v>461</v>
       </c>
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="109" t="s">
         <v>460</v>
       </c>
-      <c r="C48" s="164" t="s">
+      <c r="C48" s="110" t="s">
         <v>478</v>
       </c>
-      <c r="D48" s="164" t="s">
+      <c r="D48" s="110" t="s">
         <v>477</v>
       </c>
-      <c r="E48" s="165" t="s">
+      <c r="E48" s="147" t="s">
         <v>476</v>
       </c>
-      <c r="F48" s="164" t="s">
+      <c r="F48" s="110" t="s">
         <v>475</v>
       </c>
       <c r="G48" s="27" t="s">
@@ -15819,12 +16130,12 @@
       <c r="GX48" s="9"/>
     </row>
     <row r="49" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="166"/>
-      <c r="B49" s="166"/>
-      <c r="C49" s="164"/>
-      <c r="D49" s="164"/>
-      <c r="E49" s="165"/>
-      <c r="F49" s="164"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="110"/>
       <c r="G49" s="27" t="s">
         <v>473</v>
       </c>
@@ -16029,12 +16340,12 @@
       <c r="GX49" s="9"/>
     </row>
     <row r="50" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="166"/>
-      <c r="B50" s="166"/>
-      <c r="C50" s="164"/>
-      <c r="D50" s="164"/>
-      <c r="E50" s="165"/>
-      <c r="F50" s="164"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="109"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="110"/>
       <c r="G50" s="27" t="s">
         <v>472</v>
       </c>
@@ -16239,22 +16550,22 @@
       <c r="GX50" s="9"/>
     </row>
     <row r="51" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="166" t="s">
+      <c r="A51" s="109" t="s">
         <v>461</v>
       </c>
-      <c r="B51" s="166" t="s">
+      <c r="B51" s="109" t="s">
         <v>460</v>
       </c>
-      <c r="C51" s="164" t="s">
+      <c r="C51" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="D51" s="164" t="s">
+      <c r="D51" s="110" t="s">
         <v>356</v>
       </c>
-      <c r="E51" s="165" t="s">
+      <c r="E51" s="147" t="s">
         <v>355</v>
       </c>
-      <c r="F51" s="164" t="s">
+      <c r="F51" s="110" t="s">
         <v>470</v>
       </c>
       <c r="G51" s="27" t="s">
@@ -16461,12 +16772,12 @@
       <c r="GX51" s="9"/>
     </row>
     <row r="52" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="166"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="165"/>
-      <c r="F52" s="164"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="110"/>
       <c r="G52" s="27" t="s">
         <v>352</v>
       </c>
@@ -16671,22 +16982,22 @@
       <c r="GX52" s="9"/>
     </row>
     <row r="53" spans="1:206" s="25" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="166" t="s">
+      <c r="A53" s="109" t="s">
         <v>461</v>
       </c>
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="109" t="s">
         <v>460</v>
       </c>
-      <c r="C53" s="164" t="s">
+      <c r="C53" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="D53" s="164" t="s">
+      <c r="D53" s="110" t="s">
         <v>468</v>
       </c>
-      <c r="E53" s="165" t="s">
+      <c r="E53" s="147" t="s">
         <v>467</v>
       </c>
-      <c r="F53" s="164" t="s">
+      <c r="F53" s="110" t="s">
         <v>466</v>
       </c>
       <c r="G53" s="27" t="s">
@@ -16893,12 +17204,12 @@
       <c r="GX53" s="9"/>
     </row>
     <row r="54" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="166"/>
-      <c r="B54" s="166"/>
-      <c r="C54" s="164"/>
-      <c r="D54" s="164"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="164"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="110"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="110"/>
       <c r="G54" s="27" t="s">
         <v>464</v>
       </c>
@@ -17103,12 +17414,12 @@
       <c r="GX54" s="9"/>
     </row>
     <row r="55" spans="1:206" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="166"/>
-      <c r="B55" s="166"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="164"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="110"/>
       <c r="G55" s="27" t="s">
         <v>463</v>
       </c>
@@ -17313,22 +17624,22 @@
       <c r="GX55" s="9"/>
     </row>
     <row r="56" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="166" t="s">
+      <c r="A56" s="109" t="s">
         <v>461</v>
       </c>
-      <c r="B56" s="166" t="s">
+      <c r="B56" s="109" t="s">
         <v>460</v>
       </c>
-      <c r="C56" s="164" t="s">
+      <c r="C56" s="110" t="s">
         <v>462</v>
       </c>
-      <c r="D56" s="164" t="s">
+      <c r="D56" s="110" t="s">
         <v>434</v>
       </c>
-      <c r="E56" s="165" t="s">
+      <c r="E56" s="147" t="s">
         <v>433</v>
       </c>
-      <c r="F56" s="164" t="s">
+      <c r="F56" s="110" t="s">
         <v>458</v>
       </c>
       <c r="G56" s="27" t="s">
@@ -17535,12 +17846,12 @@
       <c r="GX56" s="9"/>
     </row>
     <row r="57" spans="1:206" s="25" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="166"/>
-      <c r="B57" s="166"/>
-      <c r="C57" s="164"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="164"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="110"/>
       <c r="G57" s="27" t="s">
         <v>430</v>
       </c>
@@ -17745,22 +18056,22 @@
       <c r="GX57" s="9"/>
     </row>
     <row r="58" spans="1:206" s="25" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="179" t="s">
+      <c r="A58" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="B58" s="181" t="s">
+      <c r="B58" s="117" t="s">
         <v>460</v>
       </c>
-      <c r="C58" s="157" t="s">
+      <c r="C58" s="126" t="s">
         <v>459</v>
       </c>
-      <c r="D58" s="157" t="s">
+      <c r="D58" s="126" t="s">
         <v>434</v>
       </c>
-      <c r="E58" s="159" t="s">
+      <c r="E58" s="148" t="s">
         <v>433</v>
       </c>
-      <c r="F58" s="157" t="s">
+      <c r="F58" s="126" t="s">
         <v>458</v>
       </c>
       <c r="G58" s="27" t="s">
@@ -17967,12 +18278,12 @@
       <c r="GX58" s="9"/>
     </row>
     <row r="59" spans="1:206" s="25" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="180"/>
-      <c r="B59" s="182"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="160"/>
-      <c r="F59" s="158"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="149"/>
+      <c r="F59" s="127"/>
       <c r="G59" s="26" t="s">
         <v>430</v>
       </c>
@@ -18177,22 +18488,22 @@
       <c r="GX59" s="9"/>
     </row>
     <row r="60" spans="1:206" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="161" t="s">
+      <c r="A60" s="123" t="s">
         <v>359</v>
       </c>
-      <c r="B60" s="161" t="s">
+      <c r="B60" s="123" t="s">
         <v>441</v>
       </c>
-      <c r="C60" s="162" t="s">
+      <c r="C60" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="D60" s="162" t="s">
+      <c r="D60" s="124" t="s">
         <v>434</v>
       </c>
-      <c r="E60" s="163" t="s">
+      <c r="E60" s="139" t="s">
         <v>456</v>
       </c>
-      <c r="F60" s="162" t="s">
+      <c r="F60" s="124" t="s">
         <v>455</v>
       </c>
       <c r="G60" s="87" t="s">
@@ -18200,12 +18511,12 @@
       </c>
     </row>
     <row r="61" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="156"/>
-      <c r="B61" s="156"/>
-      <c r="C61" s="152"/>
-      <c r="D61" s="152"/>
-      <c r="E61" s="154"/>
-      <c r="F61" s="152"/>
+      <c r="A61" s="128"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="150"/>
+      <c r="F61" s="130"/>
       <c r="G61" s="87" t="s">
         <v>453</v>
       </c>
@@ -18429,22 +18740,22 @@
       <c r="G62" s="88"/>
     </row>
     <row r="63" spans="1:206" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="119" t="s">
         <v>359</v>
       </c>
-      <c r="B63" s="155" t="s">
+      <c r="B63" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="C63" s="151" t="s">
+      <c r="C63" s="129" t="s">
         <v>450</v>
       </c>
-      <c r="D63" s="151" t="s">
+      <c r="D63" s="129" t="s">
         <v>364</v>
       </c>
-      <c r="E63" s="153" t="s">
+      <c r="E63" s="131" t="s">
         <v>363</v>
       </c>
-      <c r="F63" s="151" t="s">
+      <c r="F63" s="129" t="s">
         <v>449</v>
       </c>
       <c r="G63" s="23" t="s">
@@ -18452,12 +18763,12 @@
       </c>
     </row>
     <row r="64" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="156"/>
-      <c r="B64" s="156"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="154"/>
-      <c r="F64" s="152"/>
+      <c r="A64" s="128"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="150"/>
+      <c r="F64" s="130"/>
       <c r="G64" s="23" t="s">
         <v>360</v>
       </c>
@@ -18662,22 +18973,22 @@
       <c r="GX64" s="9"/>
     </row>
     <row r="65" spans="1:206" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="119" t="s">
         <v>359</v>
       </c>
-      <c r="B65" s="155" t="s">
+      <c r="B65" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="C65" s="151" t="s">
+      <c r="C65" s="129" t="s">
         <v>448</v>
       </c>
-      <c r="D65" s="151" t="s">
+      <c r="D65" s="129" t="s">
         <v>383</v>
       </c>
-      <c r="E65" s="153" t="s">
+      <c r="E65" s="131" t="s">
         <v>390</v>
       </c>
-      <c r="F65" s="151" t="s">
+      <c r="F65" s="129" t="s">
         <v>389</v>
       </c>
       <c r="G65" s="23" t="s">
@@ -18685,12 +18996,12 @@
       </c>
     </row>
     <row r="66" spans="1:206" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="156"/>
-      <c r="B66" s="156"/>
-      <c r="C66" s="152"/>
-      <c r="D66" s="152"/>
-      <c r="E66" s="154"/>
-      <c r="F66" s="152"/>
+      <c r="A66" s="128"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="130"/>
       <c r="G66" s="23" t="s">
         <v>387</v>
       </c>
@@ -18895,22 +19206,22 @@
       <c r="GX66" s="9"/>
     </row>
     <row r="67" spans="1:206" x14ac:dyDescent="0.25">
-      <c r="A67" s="155" t="s">
+      <c r="A67" s="119" t="s">
         <v>359</v>
       </c>
-      <c r="B67" s="155" t="s">
+      <c r="B67" s="119" t="s">
         <v>441</v>
       </c>
-      <c r="C67" s="151" t="s">
+      <c r="C67" s="129" t="s">
         <v>447</v>
       </c>
-      <c r="D67" s="151" t="s">
+      <c r="D67" s="129" t="s">
         <v>427</v>
       </c>
-      <c r="E67" s="153" t="s">
+      <c r="E67" s="131" t="s">
         <v>426</v>
       </c>
-      <c r="F67" s="151" t="s">
+      <c r="F67" s="129" t="s">
         <v>425</v>
       </c>
       <c r="G67" s="23" t="s">
@@ -18918,12 +19229,12 @@
       </c>
     </row>
     <row r="68" spans="1:206" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="156"/>
-      <c r="B68" s="156"/>
-      <c r="C68" s="152"/>
-      <c r="D68" s="152"/>
-      <c r="E68" s="154"/>
-      <c r="F68" s="152"/>
+      <c r="A68" s="128"/>
+      <c r="B68" s="128"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="150"/>
+      <c r="F68" s="130"/>
       <c r="G68" s="23" t="s">
         <v>446</v>
       </c>
@@ -19174,22 +19485,22 @@
       </c>
     </row>
     <row r="71" spans="1:206" s="18" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="125" t="s">
+      <c r="A71" s="121" t="s">
         <v>375</v>
       </c>
-      <c r="B71" s="125" t="s">
+      <c r="B71" s="121" t="s">
         <v>436</v>
       </c>
-      <c r="C71" s="127" t="s">
+      <c r="C71" s="140" t="s">
         <v>435</v>
       </c>
-      <c r="D71" s="127" t="s">
+      <c r="D71" s="140" t="s">
         <v>434</v>
       </c>
-      <c r="E71" s="129" t="s">
+      <c r="E71" s="142" t="s">
         <v>433</v>
       </c>
-      <c r="F71" s="127" t="s">
+      <c r="F71" s="140" t="s">
         <v>432</v>
       </c>
       <c r="G71" s="77" t="s">
@@ -19396,12 +19707,12 @@
       <c r="GX71" s="9"/>
     </row>
     <row r="72" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="126"/>
-      <c r="B72" s="126"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="128"/>
-      <c r="E72" s="130"/>
-      <c r="F72" s="128"/>
+      <c r="A72" s="122"/>
+      <c r="B72" s="122"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="143"/>
+      <c r="F72" s="141"/>
       <c r="G72" s="77" t="s">
         <v>430</v>
       </c>
@@ -19606,25 +19917,25 @@
       <c r="GX72" s="9"/>
     </row>
     <row r="73" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="131" t="s">
+      <c r="A73" s="163" t="s">
         <v>412</v>
       </c>
-      <c r="B73" s="131" t="s">
+      <c r="B73" s="163" t="s">
         <v>429</v>
       </c>
-      <c r="C73" s="133" t="s">
+      <c r="C73" s="151" t="s">
         <v>418</v>
       </c>
-      <c r="D73" s="133" t="s">
+      <c r="D73" s="151" t="s">
         <v>417</v>
       </c>
-      <c r="E73" s="135" t="s">
+      <c r="E73" s="153" t="s">
         <v>416</v>
       </c>
-      <c r="F73" s="133" t="s">
+      <c r="F73" s="151" t="s">
         <v>415</v>
       </c>
-      <c r="G73" s="145" t="s">
+      <c r="G73" s="155" t="s">
         <v>414</v>
       </c>
       <c r="H73" s="9"/>
@@ -19828,13 +20139,13 @@
       <c r="GX73" s="9"/>
     </row>
     <row r="74" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="132"/>
-      <c r="B74" s="132"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="136"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="146"/>
+      <c r="A74" s="164"/>
+      <c r="B74" s="164"/>
+      <c r="C74" s="152"/>
+      <c r="D74" s="152"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="152"/>
+      <c r="G74" s="156"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -20036,22 +20347,22 @@
       <c r="GX74" s="9"/>
     </row>
     <row r="75" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="143" t="s">
+      <c r="A75" s="157" t="s">
         <v>412</v>
       </c>
-      <c r="B75" s="143" t="s">
+      <c r="B75" s="157" t="s">
         <v>422</v>
       </c>
-      <c r="C75" s="144" t="s">
+      <c r="C75" s="159" t="s">
         <v>428</v>
       </c>
-      <c r="D75" s="144" t="s">
+      <c r="D75" s="159" t="s">
         <v>427</v>
       </c>
-      <c r="E75" s="147" t="s">
+      <c r="E75" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="F75" s="144" t="s">
+      <c r="F75" s="159" t="s">
         <v>425</v>
       </c>
       <c r="G75" s="80" t="s">
@@ -20258,12 +20569,12 @@
       <c r="GX75" s="9"/>
     </row>
     <row r="76" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="138"/>
-      <c r="B76" s="138"/>
-      <c r="C76" s="140"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="140"/>
+      <c r="A76" s="158"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="162"/>
+      <c r="F76" s="160"/>
       <c r="G76" s="80" t="s">
         <v>423</v>
       </c>
@@ -20468,25 +20779,25 @@
       <c r="GX76" s="9"/>
     </row>
     <row r="77" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="137" t="s">
+      <c r="A77" s="165" t="s">
         <v>412</v>
       </c>
-      <c r="B77" s="137" t="s">
+      <c r="B77" s="165" t="s">
         <v>422</v>
       </c>
-      <c r="C77" s="139" t="s">
+      <c r="C77" s="166" t="s">
         <v>421</v>
       </c>
-      <c r="D77" s="139" t="s">
+      <c r="D77" s="166" t="s">
         <v>417</v>
       </c>
-      <c r="E77" s="141" t="s">
+      <c r="E77" s="167" t="s">
         <v>416</v>
       </c>
-      <c r="F77" s="139" t="s">
+      <c r="F77" s="166" t="s">
         <v>415</v>
       </c>
-      <c r="G77" s="148" t="s">
+      <c r="G77" s="168" t="s">
         <v>414</v>
       </c>
       <c r="H77" s="9"/>
@@ -20690,13 +21001,13 @@
       <c r="GX77" s="9"/>
     </row>
     <row r="78" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="132"/>
-      <c r="B78" s="132"/>
-      <c r="C78" s="134"/>
-      <c r="D78" s="134"/>
-      <c r="E78" s="136"/>
-      <c r="F78" s="134"/>
-      <c r="G78" s="146"/>
+      <c r="A78" s="164"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="156"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -20898,25 +21209,25 @@
       <c r="GX78" s="9"/>
     </row>
     <row r="79" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="131" t="s">
+      <c r="A79" s="163" t="s">
         <v>412</v>
       </c>
-      <c r="B79" s="131" t="s">
+      <c r="B79" s="163" t="s">
         <v>420</v>
       </c>
-      <c r="C79" s="133" t="s">
+      <c r="C79" s="151" t="s">
         <v>418</v>
       </c>
-      <c r="D79" s="133" t="s">
+      <c r="D79" s="151" t="s">
         <v>417</v>
       </c>
-      <c r="E79" s="135" t="s">
+      <c r="E79" s="153" t="s">
         <v>416</v>
       </c>
-      <c r="F79" s="133" t="s">
+      <c r="F79" s="151" t="s">
         <v>419</v>
       </c>
-      <c r="G79" s="145" t="s">
+      <c r="G79" s="155" t="s">
         <v>414</v>
       </c>
       <c r="H79" s="9"/>
@@ -21120,13 +21431,13 @@
       <c r="GX79" s="9"/>
     </row>
     <row r="80" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="132"/>
-      <c r="B80" s="132"/>
-      <c r="C80" s="134"/>
-      <c r="D80" s="134"/>
-      <c r="E80" s="136"/>
-      <c r="F80" s="134"/>
-      <c r="G80" s="146"/>
+      <c r="A80" s="164"/>
+      <c r="B80" s="164"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="152"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="156"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -21328,25 +21639,25 @@
       <c r="GX80" s="9"/>
     </row>
     <row r="81" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="143" t="s">
+      <c r="A81" s="157" t="s">
         <v>412</v>
       </c>
-      <c r="B81" s="143" t="s">
+      <c r="B81" s="157" t="s">
         <v>413</v>
       </c>
-      <c r="C81" s="144" t="s">
+      <c r="C81" s="159" t="s">
         <v>418</v>
       </c>
-      <c r="D81" s="144" t="s">
+      <c r="D81" s="159" t="s">
         <v>417</v>
       </c>
-      <c r="E81" s="147" t="s">
+      <c r="E81" s="161" t="s">
         <v>416</v>
       </c>
-      <c r="F81" s="144" t="s">
+      <c r="F81" s="159" t="s">
         <v>415</v>
       </c>
-      <c r="G81" s="149" t="s">
+      <c r="G81" s="169" t="s">
         <v>414</v>
       </c>
       <c r="H81" s="9"/>
@@ -21550,13 +21861,13 @@
       <c r="GX81" s="9"/>
     </row>
     <row r="82" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="138"/>
-      <c r="B82" s="138"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="150"/>
+      <c r="A82" s="158"/>
+      <c r="B82" s="158"/>
+      <c r="C82" s="160"/>
+      <c r="D82" s="160"/>
+      <c r="E82" s="162"/>
+      <c r="F82" s="160"/>
+      <c r="G82" s="170"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -21758,22 +22069,22 @@
       <c r="GX82" s="9"/>
     </row>
     <row r="83" spans="1:206" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="137" t="s">
+      <c r="A83" s="165" t="s">
         <v>412</v>
       </c>
-      <c r="B83" s="137" t="s">
+      <c r="B83" s="165" t="s">
         <v>413</v>
       </c>
-      <c r="C83" s="139" t="s">
+      <c r="C83" s="166" t="s">
         <v>401</v>
       </c>
-      <c r="D83" s="139" t="s">
+      <c r="D83" s="166" t="s">
         <v>383</v>
       </c>
-      <c r="E83" s="141" t="s">
+      <c r="E83" s="167" t="s">
         <v>382</v>
       </c>
-      <c r="F83" s="139" t="s">
+      <c r="F83" s="166" t="s">
         <v>381</v>
       </c>
       <c r="G83" s="81" t="s">
@@ -21980,12 +22291,12 @@
       <c r="GX83" s="9"/>
     </row>
     <row r="84" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="138"/>
-      <c r="B84" s="138"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="140"/>
+      <c r="A84" s="158"/>
+      <c r="B84" s="158"/>
+      <c r="C84" s="160"/>
+      <c r="D84" s="160"/>
+      <c r="E84" s="162"/>
+      <c r="F84" s="160"/>
       <c r="G84" s="81" t="s">
         <v>379</v>
       </c>
@@ -22190,12 +22501,12 @@
       <c r="GX84" s="9"/>
     </row>
     <row r="85" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="138"/>
-      <c r="B85" s="138"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="140"/>
+      <c r="A85" s="158"/>
+      <c r="B85" s="158"/>
+      <c r="C85" s="160"/>
+      <c r="D85" s="160"/>
+      <c r="E85" s="162"/>
+      <c r="F85" s="160"/>
       <c r="G85" s="81" t="s">
         <v>378</v>
       </c>
@@ -22400,12 +22711,12 @@
       <c r="GX85" s="9"/>
     </row>
     <row r="86" spans="1:206" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="138"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="140"/>
+      <c r="A86" s="158"/>
+      <c r="B86" s="158"/>
+      <c r="C86" s="160"/>
+      <c r="D86" s="160"/>
+      <c r="E86" s="162"/>
+      <c r="F86" s="160"/>
       <c r="G86" s="81" t="s">
         <v>377</v>
       </c>
@@ -22610,12 +22921,12 @@
       <c r="GX86" s="9"/>
     </row>
     <row r="87" spans="1:206" s="21" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="132"/>
-      <c r="B87" s="132"/>
-      <c r="C87" s="134"/>
-      <c r="D87" s="134"/>
-      <c r="E87" s="136"/>
-      <c r="F87" s="134"/>
+      <c r="A87" s="164"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="152"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="154"/>
+      <c r="F87" s="152"/>
       <c r="G87" s="81" t="s">
         <v>376</v>
       </c>
@@ -22820,22 +23131,22 @@
       <c r="GX87" s="9"/>
     </row>
     <row r="88" spans="1:206" s="21" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="131" t="s">
+      <c r="A88" s="163" t="s">
         <v>412</v>
       </c>
-      <c r="B88" s="131" t="s">
+      <c r="B88" s="163" t="s">
         <v>411</v>
       </c>
-      <c r="C88" s="133" t="s">
+      <c r="C88" s="151" t="s">
         <v>410</v>
       </c>
-      <c r="D88" s="133" t="s">
+      <c r="D88" s="151" t="s">
         <v>397</v>
       </c>
-      <c r="E88" s="135" t="s">
+      <c r="E88" s="153" t="s">
         <v>409</v>
       </c>
-      <c r="F88" s="133" t="s">
+      <c r="F88" s="151" t="s">
         <v>408</v>
       </c>
       <c r="G88" s="82" t="s">
@@ -23042,12 +23353,12 @@
       <c r="GX88" s="9"/>
     </row>
     <row r="89" spans="1:206" s="21" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="132"/>
-      <c r="B89" s="132"/>
-      <c r="C89" s="134"/>
-      <c r="D89" s="134"/>
-      <c r="E89" s="136"/>
-      <c r="F89" s="134"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="164"/>
+      <c r="C89" s="152"/>
+      <c r="D89" s="152"/>
+      <c r="E89" s="154"/>
+      <c r="F89" s="152"/>
       <c r="G89" s="82" t="s">
         <v>406</v>
       </c>
@@ -23252,22 +23563,22 @@
       <c r="GX89" s="9"/>
     </row>
     <row r="90" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="116" t="s">
+      <c r="A90" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B90" s="116" t="s">
+      <c r="B90" s="115" t="s">
         <v>405</v>
       </c>
-      <c r="C90" s="119" t="s">
+      <c r="C90" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="D90" s="119" t="s">
+      <c r="D90" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="E90" s="122" t="s">
+      <c r="E90" s="173" t="s">
         <v>390</v>
       </c>
-      <c r="F90" s="119" t="s">
+      <c r="F90" s="171" t="s">
         <v>389</v>
       </c>
       <c r="G90" s="79" t="s">
@@ -23474,12 +23785,12 @@
       <c r="GX90" s="9"/>
     </row>
     <row r="91" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="118"/>
-      <c r="B91" s="118"/>
-      <c r="C91" s="121"/>
-      <c r="D91" s="121"/>
-      <c r="E91" s="124"/>
-      <c r="F91" s="121"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="172"/>
+      <c r="D91" s="172"/>
+      <c r="E91" s="174"/>
+      <c r="F91" s="172"/>
       <c r="G91" s="79" t="s">
         <v>387</v>
       </c>
@@ -23684,22 +23995,22 @@
       <c r="GX91" s="9"/>
     </row>
     <row r="92" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="116" t="s">
+      <c r="A92" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="C92" s="119" t="s">
+      <c r="C92" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="D92" s="119" t="s">
+      <c r="D92" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="E92" s="122" t="s">
+      <c r="E92" s="173" t="s">
         <v>390</v>
       </c>
-      <c r="F92" s="119" t="s">
+      <c r="F92" s="171" t="s">
         <v>389</v>
       </c>
       <c r="G92" s="79" t="s">
@@ -23906,12 +24217,12 @@
       <c r="GX92" s="9"/>
     </row>
     <row r="93" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="118"/>
-      <c r="B93" s="118"/>
-      <c r="C93" s="121"/>
-      <c r="D93" s="121"/>
-      <c r="E93" s="124"/>
-      <c r="F93" s="121"/>
+      <c r="A93" s="116"/>
+      <c r="B93" s="116"/>
+      <c r="C93" s="172"/>
+      <c r="D93" s="172"/>
+      <c r="E93" s="174"/>
+      <c r="F93" s="172"/>
       <c r="G93" s="79" t="s">
         <v>387</v>
       </c>
@@ -24116,22 +24427,22 @@
       <c r="GX93" s="9"/>
     </row>
     <row r="94" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="116" t="s">
+      <c r="A94" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B94" s="116" t="s">
+      <c r="B94" s="115" t="s">
         <v>403</v>
       </c>
-      <c r="C94" s="119" t="s">
+      <c r="C94" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="D94" s="119" t="s">
+      <c r="D94" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="E94" s="122" t="s">
+      <c r="E94" s="173" t="s">
         <v>390</v>
       </c>
-      <c r="F94" s="119" t="s">
+      <c r="F94" s="171" t="s">
         <v>389</v>
       </c>
       <c r="G94" s="79" t="s">
@@ -24338,12 +24649,12 @@
       <c r="GX94" s="9"/>
     </row>
     <row r="95" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="118"/>
-      <c r="B95" s="118"/>
-      <c r="C95" s="121"/>
-      <c r="D95" s="121"/>
-      <c r="E95" s="124"/>
-      <c r="F95" s="121"/>
+      <c r="A95" s="116"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="172"/>
+      <c r="D95" s="172"/>
+      <c r="E95" s="174"/>
+      <c r="F95" s="172"/>
       <c r="G95" s="79" t="s">
         <v>387</v>
       </c>
@@ -24548,22 +24859,22 @@
       <c r="GX95" s="9"/>
     </row>
     <row r="96" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="116" t="s">
+      <c r="A96" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B96" s="116" t="s">
+      <c r="B96" s="115" t="s">
         <v>402</v>
       </c>
-      <c r="C96" s="119" t="s">
+      <c r="C96" s="171" t="s">
         <v>401</v>
       </c>
-      <c r="D96" s="119" t="s">
+      <c r="D96" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="E96" s="122" t="s">
+      <c r="E96" s="173" t="s">
         <v>390</v>
       </c>
-      <c r="F96" s="119" t="s">
+      <c r="F96" s="171" t="s">
         <v>389</v>
       </c>
       <c r="G96" s="79" t="s">
@@ -24770,12 +25081,12 @@
       <c r="GX96" s="9"/>
     </row>
     <row r="97" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="118"/>
-      <c r="B97" s="118"/>
-      <c r="C97" s="121"/>
-      <c r="D97" s="121"/>
-      <c r="E97" s="124"/>
-      <c r="F97" s="121"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="116"/>
+      <c r="C97" s="172"/>
+      <c r="D97" s="172"/>
+      <c r="E97" s="174"/>
+      <c r="F97" s="172"/>
       <c r="G97" s="79" t="s">
         <v>387</v>
       </c>
@@ -24980,22 +25291,22 @@
       <c r="GX97" s="9"/>
     </row>
     <row r="98" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="116" t="s">
+      <c r="A98" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B98" s="116" t="s">
+      <c r="B98" s="115" t="s">
         <v>400</v>
       </c>
-      <c r="C98" s="119" t="s">
+      <c r="C98" s="171" t="s">
         <v>399</v>
       </c>
-      <c r="D98" s="119" t="s">
+      <c r="D98" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="E98" s="122" t="s">
+      <c r="E98" s="173" t="s">
         <v>390</v>
       </c>
-      <c r="F98" s="119" t="s">
+      <c r="F98" s="171" t="s">
         <v>389</v>
       </c>
       <c r="G98" s="79" t="s">
@@ -25202,12 +25513,12 @@
       <c r="GX98" s="9"/>
     </row>
     <row r="99" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="118"/>
-      <c r="B99" s="118"/>
-      <c r="C99" s="121"/>
-      <c r="D99" s="121"/>
-      <c r="E99" s="124"/>
-      <c r="F99" s="121"/>
+      <c r="A99" s="116"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="172"/>
+      <c r="D99" s="172"/>
+      <c r="E99" s="174"/>
+      <c r="F99" s="172"/>
       <c r="G99" s="79" t="s">
         <v>387</v>
       </c>
@@ -25412,22 +25723,22 @@
       <c r="GX99" s="9"/>
     </row>
     <row r="100" spans="1:206" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="116" t="s">
+      <c r="A100" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B100" s="116" t="s">
+      <c r="B100" s="115" t="s">
         <v>385</v>
       </c>
-      <c r="C100" s="119" t="s">
+      <c r="C100" s="171" t="s">
         <v>398</v>
       </c>
-      <c r="D100" s="119" t="s">
+      <c r="D100" s="171" t="s">
         <v>397</v>
       </c>
-      <c r="E100" s="122" t="s">
+      <c r="E100" s="173" t="s">
         <v>396</v>
       </c>
-      <c r="F100" s="119" t="s">
+      <c r="F100" s="171" t="s">
         <v>395</v>
       </c>
       <c r="G100" s="79" t="s">
@@ -25634,12 +25945,12 @@
       <c r="GX100" s="9"/>
     </row>
     <row r="101" spans="1:206" s="20" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="117"/>
-      <c r="B101" s="117"/>
-      <c r="C101" s="120"/>
-      <c r="D101" s="120"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="120"/>
+      <c r="A101" s="175"/>
+      <c r="B101" s="175"/>
+      <c r="C101" s="176"/>
+      <c r="D101" s="176"/>
+      <c r="E101" s="177"/>
+      <c r="F101" s="176"/>
       <c r="G101" s="79" t="s">
         <v>393</v>
       </c>
@@ -25844,12 +26155,12 @@
       <c r="GX101" s="9"/>
     </row>
     <row r="102" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="118"/>
-      <c r="B102" s="118"/>
-      <c r="C102" s="121"/>
-      <c r="D102" s="121"/>
-      <c r="E102" s="124"/>
-      <c r="F102" s="121"/>
+      <c r="A102" s="116"/>
+      <c r="B102" s="116"/>
+      <c r="C102" s="172"/>
+      <c r="D102" s="172"/>
+      <c r="E102" s="174"/>
+      <c r="F102" s="172"/>
       <c r="G102" s="79" t="s">
         <v>392</v>
       </c>
@@ -26054,22 +26365,22 @@
       <c r="GX102" s="9"/>
     </row>
     <row r="103" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="116" t="s">
+      <c r="A103" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B103" s="116" t="s">
+      <c r="B103" s="115" t="s">
         <v>385</v>
       </c>
-      <c r="C103" s="119" t="s">
+      <c r="C103" s="171" t="s">
         <v>391</v>
       </c>
-      <c r="D103" s="119" t="s">
+      <c r="D103" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="E103" s="122" t="s">
+      <c r="E103" s="173" t="s">
         <v>390</v>
       </c>
-      <c r="F103" s="119" t="s">
+      <c r="F103" s="171" t="s">
         <v>389</v>
       </c>
       <c r="G103" s="79" t="s">
@@ -26276,12 +26587,12 @@
       <c r="GX103" s="9"/>
     </row>
     <row r="104" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="118"/>
-      <c r="B104" s="118"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="124"/>
-      <c r="F104" s="121"/>
+      <c r="A104" s="116"/>
+      <c r="B104" s="116"/>
+      <c r="C104" s="172"/>
+      <c r="D104" s="172"/>
+      <c r="E104" s="174"/>
+      <c r="F104" s="172"/>
       <c r="G104" s="79" t="s">
         <v>387</v>
       </c>
@@ -26486,22 +26797,22 @@
       <c r="GX104" s="9"/>
     </row>
     <row r="105" spans="1:206" s="20" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="116" t="s">
+      <c r="A105" s="115" t="s">
         <v>386</v>
       </c>
-      <c r="B105" s="116" t="s">
+      <c r="B105" s="115" t="s">
         <v>385</v>
       </c>
-      <c r="C105" s="119" t="s">
+      <c r="C105" s="171" t="s">
         <v>384</v>
       </c>
-      <c r="D105" s="119" t="s">
+      <c r="D105" s="171" t="s">
         <v>383</v>
       </c>
-      <c r="E105" s="122" t="s">
+      <c r="E105" s="173" t="s">
         <v>382</v>
       </c>
-      <c r="F105" s="119" t="s">
+      <c r="F105" s="171" t="s">
         <v>381</v>
       </c>
       <c r="G105" s="79" t="s">
@@ -26708,12 +27019,12 @@
       <c r="GX105" s="9"/>
     </row>
     <row r="106" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="117"/>
-      <c r="B106" s="117"/>
-      <c r="C106" s="120"/>
-      <c r="D106" s="120"/>
-      <c r="E106" s="123"/>
-      <c r="F106" s="120"/>
+      <c r="A106" s="175"/>
+      <c r="B106" s="175"/>
+      <c r="C106" s="176"/>
+      <c r="D106" s="176"/>
+      <c r="E106" s="177"/>
+      <c r="F106" s="176"/>
       <c r="G106" s="79" t="s">
         <v>379</v>
       </c>
@@ -26918,12 +27229,12 @@
       <c r="GX106" s="9"/>
     </row>
     <row r="107" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="117"/>
-      <c r="B107" s="117"/>
-      <c r="C107" s="120"/>
-      <c r="D107" s="120"/>
-      <c r="E107" s="123"/>
-      <c r="F107" s="120"/>
+      <c r="A107" s="175"/>
+      <c r="B107" s="175"/>
+      <c r="C107" s="176"/>
+      <c r="D107" s="176"/>
+      <c r="E107" s="177"/>
+      <c r="F107" s="176"/>
       <c r="G107" s="79" t="s">
         <v>378</v>
       </c>
@@ -27128,12 +27439,12 @@
       <c r="GX107" s="9"/>
     </row>
     <row r="108" spans="1:206" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="117"/>
-      <c r="B108" s="117"/>
-      <c r="C108" s="120"/>
-      <c r="D108" s="120"/>
-      <c r="E108" s="123"/>
-      <c r="F108" s="120"/>
+      <c r="A108" s="175"/>
+      <c r="B108" s="175"/>
+      <c r="C108" s="176"/>
+      <c r="D108" s="176"/>
+      <c r="E108" s="177"/>
+      <c r="F108" s="176"/>
       <c r="G108" s="79" t="s">
         <v>377</v>
       </c>
@@ -27338,12 +27649,12 @@
       <c r="GX108" s="9"/>
     </row>
     <row r="109" spans="1:206" s="20" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="118"/>
-      <c r="B109" s="118"/>
-      <c r="C109" s="121"/>
-      <c r="D109" s="121"/>
-      <c r="E109" s="124"/>
-      <c r="F109" s="121"/>
+      <c r="A109" s="116"/>
+      <c r="B109" s="116"/>
+      <c r="C109" s="172"/>
+      <c r="D109" s="172"/>
+      <c r="E109" s="174"/>
+      <c r="F109" s="172"/>
       <c r="G109" s="79" t="s">
         <v>376</v>
       </c>
@@ -27548,22 +27859,22 @@
       <c r="GX109" s="9"/>
     </row>
     <row r="110" spans="1:206" s="18" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="125" t="s">
+      <c r="A110" s="121" t="s">
         <v>375</v>
       </c>
-      <c r="B110" s="125" t="s">
+      <c r="B110" s="121" t="s">
         <v>374</v>
       </c>
-      <c r="C110" s="127" t="s">
+      <c r="C110" s="140" t="s">
         <v>373</v>
       </c>
-      <c r="D110" s="127" t="s">
+      <c r="D110" s="140" t="s">
         <v>372</v>
       </c>
-      <c r="E110" s="129" t="s">
+      <c r="E110" s="142" t="s">
         <v>371</v>
       </c>
-      <c r="F110" s="127" t="s">
+      <c r="F110" s="140" t="s">
         <v>370</v>
       </c>
       <c r="G110" s="78" t="s">
@@ -27770,12 +28081,12 @@
       <c r="GX110" s="9"/>
     </row>
     <row r="111" spans="1:206" s="18" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="126"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="128"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="130"/>
-      <c r="F111" s="128"/>
+      <c r="A111" s="122"/>
+      <c r="B111" s="122"/>
+      <c r="C111" s="141"/>
+      <c r="D111" s="141"/>
+      <c r="E111" s="143"/>
+      <c r="F111" s="141"/>
       <c r="G111" s="78" t="s">
         <v>368</v>
       </c>
@@ -27980,22 +28291,22 @@
       <c r="GX111" s="9"/>
     </row>
     <row r="112" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="112" t="s">
+      <c r="A112" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="B112" s="112" t="s">
+      <c r="B112" s="113" t="s">
         <v>367</v>
       </c>
-      <c r="C112" s="110" t="s">
+      <c r="C112" s="178" t="s">
         <v>366</v>
       </c>
-      <c r="D112" s="110" t="s">
+      <c r="D112" s="178" t="s">
         <v>364</v>
       </c>
-      <c r="E112" s="114" t="s">
+      <c r="E112" s="180" t="s">
         <v>363</v>
       </c>
-      <c r="F112" s="110" t="s">
+      <c r="F112" s="178" t="s">
         <v>362</v>
       </c>
       <c r="G112" s="19" t="s">
@@ -28003,12 +28314,12 @@
       </c>
     </row>
     <row r="113" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="113"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="111"/>
-      <c r="D113" s="111"/>
-      <c r="E113" s="115"/>
-      <c r="F113" s="111"/>
+      <c r="A113" s="114"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="179"/>
+      <c r="D113" s="179"/>
+      <c r="E113" s="181"/>
+      <c r="F113" s="179"/>
       <c r="G113" s="19" t="s">
         <v>360</v>
       </c>
@@ -28213,22 +28524,22 @@
       <c r="GX113" s="9"/>
     </row>
     <row r="114" spans="1:206" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="112" t="s">
+      <c r="A114" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="B114" s="112" t="s">
+      <c r="B114" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="C114" s="110" t="s">
+      <c r="C114" s="178" t="s">
         <v>365</v>
       </c>
-      <c r="D114" s="110" t="s">
+      <c r="D114" s="178" t="s">
         <v>364</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="180" t="s">
         <v>363</v>
       </c>
-      <c r="F114" s="110" t="s">
+      <c r="F114" s="178" t="s">
         <v>362</v>
       </c>
       <c r="G114" s="19" t="s">
@@ -28236,12 +28547,12 @@
       </c>
     </row>
     <row r="115" spans="1:206" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="113"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="111"/>
-      <c r="D115" s="111"/>
-      <c r="E115" s="115"/>
-      <c r="F115" s="111"/>
+      <c r="A115" s="114"/>
+      <c r="B115" s="114"/>
+      <c r="C115" s="179"/>
+      <c r="D115" s="179"/>
+      <c r="E115" s="181"/>
+      <c r="F115" s="179"/>
       <c r="G115" s="19" t="s">
         <v>360</v>
       </c>
@@ -28446,22 +28757,22 @@
       <c r="GX115" s="9"/>
     </row>
     <row r="116" spans="1:206" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="112" t="s">
+      <c r="A116" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="B116" s="112" t="s">
+      <c r="B116" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="C116" s="110" t="s">
+      <c r="C116" s="178" t="s">
         <v>357</v>
       </c>
-      <c r="D116" s="110" t="s">
+      <c r="D116" s="178" t="s">
         <v>356</v>
       </c>
-      <c r="E116" s="114" t="s">
+      <c r="E116" s="180" t="s">
         <v>355</v>
       </c>
-      <c r="F116" s="110" t="s">
+      <c r="F116" s="178" t="s">
         <v>354</v>
       </c>
       <c r="G116" s="40" t="s">
@@ -28469,12 +28780,12 @@
       </c>
     </row>
     <row r="117" spans="1:206" s="17" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="113"/>
-      <c r="B117" s="113"/>
-      <c r="C117" s="111"/>
-      <c r="D117" s="111"/>
-      <c r="E117" s="115"/>
-      <c r="F117" s="111"/>
+      <c r="A117" s="114"/>
+      <c r="B117" s="114"/>
+      <c r="C117" s="179"/>
+      <c r="D117" s="179"/>
+      <c r="E117" s="181"/>
+      <c r="F117" s="179"/>
       <c r="G117" s="19" t="s">
         <v>352</v>
       </c>
@@ -28736,6 +29047,210 @@
   </sheetData>
   <autoFilter ref="A1:GX117" xr:uid="{C19CED52-092A-4B65-8B9F-589DB1FD1B9C}"/>
   <mergeCells count="228">
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="F105:F109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="A58:A59"/>
@@ -28760,210 +29275,6 @@
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D83:D87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="F105:F109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="E114:E115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -28989,55 +29300,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="182" t="s">
         <v>614</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="257" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="197" t="s">
+      <c r="D1" s="182" t="s">
         <v>615</v>
       </c>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="182" t="s">
         <v>616</v>
       </c>
-      <c r="F1" s="197" t="s">
+      <c r="F1" s="182" t="s">
         <v>617</v>
       </c>
-      <c r="G1" s="197"/>
+      <c r="G1" s="182"/>
       <c r="H1" s="61"/>
       <c r="I1" s="61"/>
       <c r="J1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="198"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="199"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
+      <c r="A3" s="184"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
       <c r="J3" s="63"/>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="189" t="s">
+      <c r="A4" s="249" t="s">
         <v>565</v>
       </c>
       <c r="B4" s="50">
@@ -29049,7 +29360,7 @@
       <c r="D4" s="105"/>
     </row>
     <row r="5" spans="1:15" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="190"/>
+      <c r="A5" s="260"/>
       <c r="B5" s="52"/>
       <c r="C5" s="53" t="s">
         <v>566</v>
@@ -29057,7 +29368,7 @@
       <c r="D5" s="105"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="261" t="s">
         <v>567</v>
       </c>
       <c r="B6" s="50">
@@ -29066,10 +29377,10 @@
       <c r="C6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="248" t="s">
+      <c r="D6" s="185" t="s">
         <v>567</v>
       </c>
-      <c r="E6" s="240" t="s">
+      <c r="E6" s="187" t="s">
         <v>585</v>
       </c>
       <c r="F6" s="46" t="s">
@@ -29088,13 +29399,13 @@
       <c r="O6" s="64"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
-      <c r="B7" s="193"/>
-      <c r="C7" s="195" t="s">
+      <c r="A7" s="262"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="240" t="s">
         <v>568</v>
       </c>
-      <c r="D7" s="249"/>
-      <c r="E7" s="241"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="46"/>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
@@ -29107,11 +29418,11 @@
       <c r="O7" s="64"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="241"/>
+      <c r="A8" s="262"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="186"/>
+      <c r="E8" s="188"/>
       <c r="F8" s="29" t="s">
         <v>433</v>
       </c>
@@ -29128,11 +29439,11 @@
       <c r="O8" s="65"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="192"/>
+      <c r="A9" s="262"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="188"/>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
       <c r="H9" s="66"/>
@@ -29145,7 +29456,7 @@
       <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="249" t="s">
         <v>565</v>
       </c>
       <c r="B10" s="50">
@@ -29157,21 +29468,21 @@
       <c r="D10" s="105"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="200"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="195" t="s">
+      <c r="A11" s="250"/>
+      <c r="B11" s="220"/>
+      <c r="C11" s="240" t="s">
         <v>569</v>
       </c>
       <c r="D11" s="105"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="200"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="196"/>
+      <c r="A12" s="250"/>
+      <c r="B12" s="221"/>
+      <c r="C12" s="241"/>
       <c r="D12" s="105"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="251" t="s">
         <v>570</v>
       </c>
       <c r="B13" s="50">
@@ -29180,146 +29491,146 @@
       <c r="C13" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="262" t="s">
+      <c r="D13" s="201" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="201"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="195" t="s">
+      <c r="A14" s="251"/>
+      <c r="B14" s="220"/>
+      <c r="C14" s="240" t="s">
         <v>571</v>
       </c>
-      <c r="D14" s="262"/>
+      <c r="D14" s="201"/>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="201"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="262"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="201"/>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="201"/>
+      <c r="A16" s="251"/>
       <c r="B16" s="54"/>
-      <c r="C16" s="196"/>
-      <c r="D16" s="262"/>
+      <c r="C16" s="241"/>
+      <c r="D16" s="201"/>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="201"/>
+      <c r="A17" s="251"/>
       <c r="B17" s="50">
         <v>5</v>
       </c>
       <c r="C17" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="262"/>
+      <c r="D17" s="201"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="201"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="202" t="s">
+      <c r="A18" s="251"/>
+      <c r="B18" s="220"/>
+      <c r="C18" s="231" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="262"/>
+      <c r="D18" s="201"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="201"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="262"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="201"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="201"/>
+      <c r="A20" s="251"/>
       <c r="B20" s="54"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="262"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="201"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="201"/>
+      <c r="A21" s="251"/>
       <c r="B21" s="54"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="262"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="201"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="201"/>
+      <c r="A22" s="251"/>
       <c r="B22" s="50">
         <v>6</v>
       </c>
       <c r="C22" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="262"/>
+      <c r="D22" s="201"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="201"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="202" t="s">
+      <c r="A23" s="251"/>
+      <c r="B23" s="220"/>
+      <c r="C23" s="231" t="s">
         <v>573</v>
       </c>
-      <c r="D23" s="262"/>
+      <c r="D23" s="201"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="201"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="203"/>
-      <c r="D24" s="262"/>
+      <c r="A24" s="251"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="201"/>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="201"/>
+      <c r="A25" s="251"/>
       <c r="B25" s="54"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="262"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="201"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="201"/>
+      <c r="A26" s="251"/>
       <c r="B26" s="54"/>
-      <c r="C26" s="203"/>
-      <c r="D26" s="262"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="201"/>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="201"/>
+      <c r="A27" s="251"/>
       <c r="B27" s="54"/>
-      <c r="C27" s="203"/>
-      <c r="D27" s="262"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="201"/>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="201"/>
+      <c r="A28" s="251"/>
       <c r="B28" s="54"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="262"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="201"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="201"/>
+      <c r="A29" s="251"/>
       <c r="B29" s="50">
         <v>7</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="262"/>
+      <c r="D29" s="201"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="201"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="204" t="s">
+      <c r="A30" s="251"/>
+      <c r="B30" s="220"/>
+      <c r="C30" s="252" t="s">
         <v>574</v>
       </c>
-      <c r="D30" s="262"/>
+      <c r="D30" s="201"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="201"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="205"/>
-      <c r="D31" s="262"/>
+      <c r="A31" s="251"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="253"/>
+      <c r="D31" s="201"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="201"/>
+      <c r="A32" s="251"/>
       <c r="B32" s="54"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="263"/>
+      <c r="C32" s="253"/>
+      <c r="D32" s="202"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="206" t="s">
+      <c r="A33" s="228" t="s">
         <v>567</v>
       </c>
       <c r="B33" s="50">
@@ -29328,38 +29639,38 @@
       <c r="C33" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D33" s="259" t="s">
+      <c r="D33" s="198" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="207"/>
-      <c r="B34" s="193"/>
-      <c r="C34" s="202" t="s">
+      <c r="A34" s="229"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="231" t="s">
         <v>575</v>
       </c>
-      <c r="D34" s="260"/>
+      <c r="D34" s="199"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="207"/>
-      <c r="B35" s="194"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="260"/>
+      <c r="A35" s="229"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="232"/>
+      <c r="D35" s="199"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="207"/>
+      <c r="A36" s="229"/>
       <c r="B36" s="54"/>
-      <c r="C36" s="203"/>
-      <c r="D36" s="260"/>
+      <c r="C36" s="232"/>
+      <c r="D36" s="199"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="208"/>
+      <c r="A37" s="230"/>
       <c r="B37" s="54"/>
-      <c r="C37" s="203"/>
-      <c r="D37" s="260"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="199"/>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="209" t="s">
+      <c r="A38" s="234" t="s">
         <v>576</v>
       </c>
       <c r="B38" s="50">
@@ -29368,162 +29679,162 @@
       <c r="C38" s="50" t="s">
         <v>323</v>
       </c>
-      <c r="D38" s="254" t="s">
+      <c r="D38" s="193" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="210"/>
-      <c r="B39" s="193"/>
-      <c r="C39" s="195" t="s">
+      <c r="A39" s="235"/>
+      <c r="B39" s="220"/>
+      <c r="C39" s="240" t="s">
         <v>577</v>
       </c>
-      <c r="D39" s="256"/>
+      <c r="D39" s="195"/>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="210"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="256"/>
+      <c r="A40" s="235"/>
+      <c r="B40" s="221"/>
+      <c r="C40" s="241"/>
+      <c r="D40" s="195"/>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="210"/>
+      <c r="A41" s="235"/>
       <c r="B41" s="54"/>
-      <c r="C41" s="196"/>
-      <c r="D41" s="256"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="195"/>
     </row>
     <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="210"/>
+      <c r="A42" s="235"/>
       <c r="B42" s="50">
         <v>10</v>
       </c>
       <c r="C42" s="50" t="s">
         <v>578</v>
       </c>
-      <c r="D42" s="256"/>
+      <c r="D42" s="195"/>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="210"/>
-      <c r="B43" s="193"/>
-      <c r="C43" s="195" t="s">
+      <c r="A43" s="235"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="240" t="s">
         <v>579</v>
       </c>
-      <c r="D43" s="256"/>
+      <c r="D43" s="195"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="210"/>
-      <c r="B44" s="194"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="256"/>
+      <c r="A44" s="235"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="241"/>
+      <c r="D44" s="195"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="210"/>
+      <c r="A45" s="235"/>
       <c r="B45" s="54"/>
-      <c r="C45" s="196"/>
-      <c r="D45" s="256"/>
+      <c r="C45" s="241"/>
+      <c r="D45" s="195"/>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="210"/>
+      <c r="A46" s="235"/>
       <c r="B46" s="50">
         <v>11</v>
       </c>
       <c r="C46" s="50" t="s">
         <v>580</v>
       </c>
-      <c r="D46" s="261" t="s">
+      <c r="D46" s="200" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="210"/>
-      <c r="B47" s="193"/>
-      <c r="C47" s="195" t="s">
+      <c r="A47" s="235"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="240" t="s">
         <v>581</v>
       </c>
-      <c r="D47" s="261"/>
+      <c r="D47" s="200"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="210"/>
-      <c r="B48" s="194"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="261"/>
+      <c r="A48" s="235"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="241"/>
+      <c r="D48" s="200"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="210"/>
+      <c r="A49" s="235"/>
       <c r="B49" s="50">
         <v>12</v>
       </c>
       <c r="C49" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="D49" s="254" t="s">
+      <c r="D49" s="193" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="210"/>
-      <c r="B50" s="193"/>
-      <c r="C50" s="195" t="s">
+      <c r="A50" s="235"/>
+      <c r="B50" s="220"/>
+      <c r="C50" s="240" t="s">
         <v>582</v>
       </c>
-      <c r="D50" s="256"/>
+      <c r="D50" s="195"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="210"/>
-      <c r="B51" s="194"/>
-      <c r="C51" s="196"/>
-      <c r="D51" s="256"/>
+      <c r="A51" s="235"/>
+      <c r="B51" s="221"/>
+      <c r="C51" s="241"/>
+      <c r="D51" s="195"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="210"/>
+      <c r="A52" s="235"/>
       <c r="B52" s="54"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="256"/>
+      <c r="C52" s="241"/>
+      <c r="D52" s="195"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="210"/>
+      <c r="A53" s="235"/>
       <c r="B53" s="50">
         <v>13</v>
       </c>
       <c r="C53" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="D53" s="256"/>
+      <c r="D53" s="195"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="210"/>
-      <c r="B54" s="193"/>
-      <c r="C54" s="195" t="s">
+      <c r="A54" s="235"/>
+      <c r="B54" s="220"/>
+      <c r="C54" s="240" t="s">
         <v>583</v>
       </c>
-      <c r="D54" s="256"/>
+      <c r="D54" s="195"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="210"/>
-      <c r="B55" s="194"/>
-      <c r="C55" s="196"/>
-      <c r="D55" s="256"/>
+      <c r="A55" s="235"/>
+      <c r="B55" s="221"/>
+      <c r="C55" s="241"/>
+      <c r="D55" s="195"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="210"/>
+      <c r="A56" s="235"/>
       <c r="B56" s="50">
         <v>14</v>
       </c>
       <c r="C56" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="256"/>
+      <c r="D56" s="195"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="211"/>
+      <c r="A57" s="236"/>
       <c r="B57" s="52"/>
       <c r="C57" s="53" t="s">
         <v>584</v>
       </c>
-      <c r="D57" s="255"/>
+      <c r="D57" s="194"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="212" t="s">
+      <c r="A58" s="246" t="s">
         <v>585</v>
       </c>
       <c r="B58" s="50">
@@ -29532,38 +29843,38 @@
       <c r="C58" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="D58" s="240" t="s">
+      <c r="D58" s="187" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="213"/>
-      <c r="B59" s="193"/>
-      <c r="C59" s="195" t="s">
+      <c r="A59" s="247"/>
+      <c r="B59" s="220"/>
+      <c r="C59" s="240" t="s">
         <v>586</v>
       </c>
-      <c r="D59" s="241"/>
+      <c r="D59" s="188"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="213"/>
-      <c r="B60" s="194"/>
-      <c r="C60" s="196"/>
-      <c r="D60" s="241"/>
+      <c r="A60" s="247"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="241"/>
+      <c r="D60" s="188"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="213"/>
+      <c r="A61" s="247"/>
       <c r="B61" s="54"/>
-      <c r="C61" s="196"/>
-      <c r="D61" s="241"/>
+      <c r="C61" s="241"/>
+      <c r="D61" s="188"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="214"/>
+      <c r="A62" s="248"/>
       <c r="B62" s="54"/>
-      <c r="C62" s="203"/>
-      <c r="D62" s="242"/>
+      <c r="C62" s="232"/>
+      <c r="D62" s="205"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="209" t="s">
+      <c r="A63" s="234" t="s">
         <v>587</v>
       </c>
       <c r="B63" s="50">
@@ -29572,20 +29883,20 @@
       <c r="C63" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D63" s="254" t="s">
+      <c r="D63" s="193" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="211"/>
+      <c r="A64" s="236"/>
       <c r="B64" s="52"/>
       <c r="C64" s="53" t="s">
         <v>588</v>
       </c>
-      <c r="D64" s="255"/>
+      <c r="D64" s="194"/>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="212" t="s">
+      <c r="A65" s="246" t="s">
         <v>589</v>
       </c>
       <c r="B65" s="50">
@@ -29594,74 +29905,74 @@
       <c r="C65" s="50" t="s">
         <v>329</v>
       </c>
-      <c r="D65" s="243" t="s">
+      <c r="D65" s="206" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="213"/>
+      <c r="A66" s="247"/>
       <c r="B66" s="55"/>
-      <c r="C66" s="202" t="s">
+      <c r="C66" s="231" t="s">
         <v>590</v>
       </c>
-      <c r="D66" s="244"/>
+      <c r="D66" s="207"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="213"/>
+      <c r="A67" s="247"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="203"/>
-      <c r="D67" s="244"/>
+      <c r="C67" s="232"/>
+      <c r="D67" s="207"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="213"/>
+      <c r="A68" s="247"/>
       <c r="B68" s="54"/>
-      <c r="C68" s="203"/>
-      <c r="D68" s="244"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="207"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="213"/>
+      <c r="A69" s="247"/>
       <c r="B69" s="54"/>
-      <c r="C69" s="203"/>
-      <c r="D69" s="244"/>
+      <c r="C69" s="232"/>
+      <c r="D69" s="207"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="213"/>
+      <c r="A70" s="247"/>
       <c r="B70" s="55"/>
-      <c r="C70" s="203"/>
-      <c r="D70" s="244"/>
+      <c r="C70" s="232"/>
+      <c r="D70" s="207"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="213"/>
+      <c r="A71" s="247"/>
       <c r="B71" s="56"/>
-      <c r="C71" s="203"/>
-      <c r="D71" s="244"/>
+      <c r="C71" s="232"/>
+      <c r="D71" s="207"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="213"/>
+      <c r="A72" s="247"/>
       <c r="B72" s="54"/>
-      <c r="C72" s="203"/>
-      <c r="D72" s="244"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="207"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="213"/>
+      <c r="A73" s="247"/>
       <c r="B73" s="54"/>
-      <c r="C73" s="203"/>
-      <c r="D73" s="244"/>
+      <c r="C73" s="232"/>
+      <c r="D73" s="207"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="213"/>
+      <c r="A74" s="247"/>
       <c r="B74" s="55"/>
-      <c r="C74" s="203"/>
-      <c r="D74" s="244"/>
+      <c r="C74" s="232"/>
+      <c r="D74" s="207"/>
     </row>
     <row r="75" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="213"/>
+      <c r="A75" s="247"/>
       <c r="B75" s="56"/>
-      <c r="C75" s="203"/>
-      <c r="D75" s="244"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="207"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="206" t="s">
+      <c r="A76" s="228" t="s">
         <v>567</v>
       </c>
       <c r="B76" s="50">
@@ -29670,50 +29981,50 @@
       <c r="C76" s="50" t="s">
         <v>591</v>
       </c>
-      <c r="D76" s="257" t="s">
+      <c r="D76" s="196" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="207"/>
-      <c r="B77" s="193"/>
-      <c r="C77" s="202" t="s">
+      <c r="A77" s="229"/>
+      <c r="B77" s="220"/>
+      <c r="C77" s="231" t="s">
         <v>592</v>
       </c>
-      <c r="D77" s="258"/>
+      <c r="D77" s="197"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="207"/>
-      <c r="B78" s="194"/>
-      <c r="C78" s="203"/>
-      <c r="D78" s="258"/>
+      <c r="A78" s="229"/>
+      <c r="B78" s="221"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="197"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="207"/>
+      <c r="A79" s="229"/>
       <c r="B79" s="54"/>
-      <c r="C79" s="203"/>
-      <c r="D79" s="258"/>
+      <c r="C79" s="232"/>
+      <c r="D79" s="197"/>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="207"/>
+      <c r="A80" s="229"/>
       <c r="B80" s="54"/>
-      <c r="C80" s="203"/>
-      <c r="D80" s="258"/>
+      <c r="C80" s="232"/>
+      <c r="D80" s="197"/>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="207"/>
+      <c r="A81" s="229"/>
       <c r="B81" s="54"/>
-      <c r="C81" s="203"/>
-      <c r="D81" s="258"/>
+      <c r="C81" s="232"/>
+      <c r="D81" s="197"/>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="208"/>
+      <c r="A82" s="230"/>
       <c r="B82" s="54"/>
-      <c r="C82" s="218"/>
-      <c r="D82" s="258"/>
+      <c r="C82" s="233"/>
+      <c r="D82" s="197"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="209" t="s">
+      <c r="A83" s="234" t="s">
         <v>593</v>
       </c>
       <c r="B83" s="50">
@@ -29722,38 +30033,38 @@
       <c r="C83" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="D83" s="251" t="s">
+      <c r="D83" s="190" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="210"/>
+      <c r="A84" s="235"/>
       <c r="B84" s="52"/>
-      <c r="C84" s="202" t="s">
+      <c r="C84" s="231" t="s">
         <v>594</v>
       </c>
-      <c r="D84" s="252"/>
+      <c r="D84" s="191"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="210"/>
+      <c r="A85" s="235"/>
       <c r="B85" s="54"/>
-      <c r="C85" s="203"/>
-      <c r="D85" s="252"/>
+      <c r="C85" s="232"/>
+      <c r="D85" s="191"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="210"/>
+      <c r="A86" s="235"/>
       <c r="B86" s="54"/>
-      <c r="C86" s="203"/>
-      <c r="D86" s="252"/>
+      <c r="C86" s="232"/>
+      <c r="D86" s="191"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="211"/>
+      <c r="A87" s="236"/>
       <c r="B87" s="54"/>
-      <c r="C87" s="218"/>
-      <c r="D87" s="253"/>
+      <c r="C87" s="233"/>
+      <c r="D87" s="192"/>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="215" t="s">
+      <c r="A88" s="237" t="s">
         <v>595</v>
       </c>
       <c r="B88" s="50">
@@ -29762,173 +30073,173 @@
       <c r="C88" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D88" s="250" t="s">
+      <c r="D88" s="189" t="s">
         <v>595</v>
       </c>
       <c r="I88" s="60"/>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="216"/>
-      <c r="B89" s="193"/>
-      <c r="C89" s="202" t="s">
+      <c r="A89" s="238"/>
+      <c r="B89" s="220"/>
+      <c r="C89" s="231" t="s">
         <v>596</v>
       </c>
-      <c r="D89" s="250"/>
+      <c r="D89" s="189"/>
       <c r="I89" s="60"/>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="216"/>
-      <c r="B90" s="194"/>
-      <c r="C90" s="203"/>
-      <c r="D90" s="250"/>
+      <c r="A90" s="238"/>
+      <c r="B90" s="221"/>
+      <c r="C90" s="232"/>
+      <c r="D90" s="189"/>
       <c r="I90" s="60"/>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="216"/>
+      <c r="A91" s="238"/>
       <c r="B91" s="54"/>
-      <c r="C91" s="203"/>
-      <c r="D91" s="250"/>
+      <c r="C91" s="232"/>
+      <c r="D91" s="189"/>
       <c r="I91" s="60"/>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="216"/>
+      <c r="A92" s="238"/>
       <c r="B92" s="54"/>
-      <c r="C92" s="218"/>
-      <c r="D92" s="250"/>
+      <c r="C92" s="233"/>
+      <c r="D92" s="189"/>
       <c r="I92" s="60"/>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="216"/>
+      <c r="A93" s="238"/>
       <c r="B93" s="50">
         <v>21</v>
       </c>
       <c r="C93" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D93" s="250"/>
+      <c r="D93" s="189"/>
       <c r="I93" s="60"/>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="216"/>
-      <c r="B94" s="193"/>
-      <c r="C94" s="195" t="s">
+      <c r="A94" s="238"/>
+      <c r="B94" s="220"/>
+      <c r="C94" s="240" t="s">
         <v>597</v>
       </c>
-      <c r="D94" s="250"/>
+      <c r="D94" s="189"/>
       <c r="I94" s="60"/>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="216"/>
-      <c r="B95" s="194"/>
-      <c r="C95" s="196"/>
-      <c r="D95" s="250"/>
+      <c r="A95" s="238"/>
+      <c r="B95" s="221"/>
+      <c r="C95" s="241"/>
+      <c r="D95" s="189"/>
       <c r="I95" s="60"/>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="216"/>
+      <c r="A96" s="238"/>
       <c r="B96" s="54"/>
-      <c r="C96" s="196"/>
-      <c r="D96" s="250"/>
+      <c r="C96" s="241"/>
+      <c r="D96" s="189"/>
       <c r="I96" s="60"/>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="216"/>
+      <c r="A97" s="238"/>
       <c r="B97" s="54"/>
-      <c r="C97" s="203"/>
-      <c r="D97" s="250"/>
+      <c r="C97" s="232"/>
+      <c r="D97" s="189"/>
       <c r="I97" s="60"/>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="216"/>
+      <c r="A98" s="238"/>
       <c r="B98" s="54"/>
-      <c r="C98" s="203"/>
-      <c r="D98" s="250"/>
+      <c r="C98" s="232"/>
+      <c r="D98" s="189"/>
       <c r="I98" s="60"/>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="216"/>
+      <c r="A99" s="238"/>
       <c r="B99" s="54"/>
-      <c r="C99" s="203"/>
-      <c r="D99" s="250"/>
+      <c r="C99" s="232"/>
+      <c r="D99" s="189"/>
       <c r="I99" s="60"/>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="216"/>
+      <c r="A100" s="238"/>
       <c r="B100" s="54"/>
-      <c r="C100" s="196"/>
-      <c r="D100" s="250"/>
+      <c r="C100" s="241"/>
+      <c r="D100" s="189"/>
       <c r="I100" s="60"/>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="216"/>
+      <c r="A101" s="238"/>
       <c r="B101" s="50">
         <v>22</v>
       </c>
       <c r="C101" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D101" s="250"/>
+      <c r="D101" s="189"/>
       <c r="I101" s="60"/>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="216"/>
-      <c r="B102" s="193"/>
-      <c r="C102" s="195" t="s">
+      <c r="A102" s="238"/>
+      <c r="B102" s="220"/>
+      <c r="C102" s="240" t="s">
         <v>598</v>
       </c>
-      <c r="D102" s="250"/>
+      <c r="D102" s="189"/>
       <c r="I102" s="60"/>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="216"/>
-      <c r="B103" s="194"/>
-      <c r="C103" s="196"/>
-      <c r="D103" s="250"/>
+      <c r="A103" s="238"/>
+      <c r="B103" s="221"/>
+      <c r="C103" s="241"/>
+      <c r="D103" s="189"/>
       <c r="I103" s="60"/>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="216"/>
+      <c r="A104" s="238"/>
       <c r="B104" s="54"/>
-      <c r="C104" s="196"/>
-      <c r="D104" s="250"/>
+      <c r="C104" s="241"/>
+      <c r="D104" s="189"/>
       <c r="I104" s="60"/>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="216"/>
+      <c r="A105" s="238"/>
       <c r="B105" s="54"/>
-      <c r="C105" s="203"/>
-      <c r="D105" s="250"/>
+      <c r="C105" s="232"/>
+      <c r="D105" s="189"/>
       <c r="I105" s="60"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="216"/>
+      <c r="A106" s="238"/>
       <c r="B106" s="54"/>
-      <c r="C106" s="203"/>
-      <c r="D106" s="250"/>
+      <c r="C106" s="232"/>
+      <c r="D106" s="189"/>
       <c r="I106" s="60"/>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="216"/>
+      <c r="A107" s="238"/>
       <c r="B107" s="50">
         <v>23</v>
       </c>
       <c r="C107" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D107" s="250"/>
-      <c r="E107" s="245" t="s">
+      <c r="D107" s="189"/>
+      <c r="E107" s="208" t="s">
         <v>601</v>
       </c>
       <c r="I107" s="60"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="216"/>
-      <c r="B108" s="193"/>
-      <c r="C108" s="220" t="s">
+      <c r="A108" s="238"/>
+      <c r="B108" s="220"/>
+      <c r="C108" s="243" t="s">
         <v>599</v>
       </c>
-      <c r="D108" s="250"/>
-      <c r="E108" s="245"/>
+      <c r="D108" s="189"/>
+      <c r="E108" s="208"/>
       <c r="F108" s="96" t="s">
         <v>416</v>
       </c>
@@ -29947,19 +30258,19 @@
       <c r="Q108" s="97"/>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="216"/>
-      <c r="B109" s="194"/>
-      <c r="C109" s="221"/>
-      <c r="D109" s="250"/>
-      <c r="E109" s="245"/>
+      <c r="A109" s="238"/>
+      <c r="B109" s="221"/>
+      <c r="C109" s="244"/>
+      <c r="D109" s="189"/>
+      <c r="E109" s="208"/>
       <c r="I109" s="60"/>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="216"/>
+      <c r="A110" s="238"/>
       <c r="B110" s="54"/>
-      <c r="C110" s="221"/>
-      <c r="D110" s="250"/>
-      <c r="E110" s="245"/>
+      <c r="C110" s="244"/>
+      <c r="D110" s="189"/>
+      <c r="E110" s="208"/>
       <c r="F110" s="98" t="s">
         <v>382</v>
       </c>
@@ -29977,100 +30288,100 @@
       <c r="P110" s="99"/>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="216"/>
+      <c r="A111" s="238"/>
       <c r="B111" s="54"/>
-      <c r="C111" s="221"/>
-      <c r="D111" s="250"/>
-      <c r="E111" s="245"/>
+      <c r="C111" s="244"/>
+      <c r="D111" s="189"/>
+      <c r="E111" s="208"/>
       <c r="I111" s="60"/>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="216"/>
+      <c r="A112" s="238"/>
       <c r="B112" s="54"/>
-      <c r="C112" s="221"/>
-      <c r="D112" s="250"/>
-      <c r="E112" s="245"/>
+      <c r="C112" s="244"/>
+      <c r="D112" s="189"/>
+      <c r="E112" s="208"/>
       <c r="I112" s="60"/>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="216"/>
+      <c r="A113" s="238"/>
       <c r="B113" s="54"/>
-      <c r="C113" s="222"/>
-      <c r="D113" s="250"/>
-      <c r="E113" s="245"/>
+      <c r="C113" s="245"/>
+      <c r="D113" s="189"/>
+      <c r="E113" s="208"/>
       <c r="I113" s="60"/>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="216"/>
+      <c r="A114" s="238"/>
       <c r="B114" s="50">
         <v>24</v>
       </c>
       <c r="C114" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="D114" s="250"/>
+      <c r="D114" s="189"/>
       <c r="I114" s="60"/>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="216"/>
-      <c r="B115" s="193"/>
-      <c r="C115" s="195" t="s">
+      <c r="A115" s="238"/>
+      <c r="B115" s="220"/>
+      <c r="C115" s="240" t="s">
         <v>600</v>
       </c>
-      <c r="D115" s="250"/>
+      <c r="D115" s="189"/>
       <c r="I115" s="60"/>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="216"/>
-      <c r="B116" s="194"/>
-      <c r="C116" s="196"/>
-      <c r="D116" s="250"/>
+      <c r="A116" s="238"/>
+      <c r="B116" s="221"/>
+      <c r="C116" s="241"/>
+      <c r="D116" s="189"/>
       <c r="I116" s="60"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="216"/>
+      <c r="A117" s="238"/>
       <c r="B117" s="54"/>
-      <c r="C117" s="196"/>
-      <c r="D117" s="250"/>
+      <c r="C117" s="241"/>
+      <c r="D117" s="189"/>
       <c r="I117" s="60"/>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="216"/>
+      <c r="A118" s="238"/>
       <c r="B118" s="54"/>
-      <c r="C118" s="196"/>
-      <c r="D118" s="250"/>
+      <c r="C118" s="241"/>
+      <c r="D118" s="189"/>
       <c r="I118" s="60"/>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="216"/>
+      <c r="A119" s="238"/>
       <c r="B119" s="54"/>
-      <c r="C119" s="196"/>
-      <c r="D119" s="250"/>
+      <c r="C119" s="241"/>
+      <c r="D119" s="189"/>
       <c r="I119" s="60"/>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="216"/>
+      <c r="A120" s="238"/>
       <c r="B120" s="54"/>
-      <c r="C120" s="196"/>
-      <c r="D120" s="250"/>
+      <c r="C120" s="241"/>
+      <c r="D120" s="189"/>
       <c r="I120" s="60"/>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="216"/>
+      <c r="A121" s="238"/>
       <c r="B121" s="54"/>
-      <c r="C121" s="196"/>
-      <c r="D121" s="250"/>
+      <c r="C121" s="241"/>
+      <c r="D121" s="189"/>
       <c r="I121" s="60"/>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="217"/>
+      <c r="A122" s="239"/>
       <c r="B122" s="57"/>
-      <c r="C122" s="219"/>
-      <c r="D122" s="250"/>
+      <c r="C122" s="242"/>
+      <c r="D122" s="189"/>
       <c r="I122" s="60"/>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="223" t="s">
+      <c r="A123" s="218" t="s">
         <v>601</v>
       </c>
       <c r="B123" s="50">
@@ -30079,299 +30390,299 @@
       <c r="C123" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="D123" s="245" t="s">
+      <c r="D123" s="208" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="224"/>
-      <c r="B124" s="193"/>
-      <c r="C124" s="225" t="s">
+      <c r="A124" s="219"/>
+      <c r="B124" s="220"/>
+      <c r="C124" s="222" t="s">
         <v>602</v>
       </c>
-      <c r="D124" s="245"/>
+      <c r="D124" s="208"/>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="224"/>
-      <c r="B125" s="194"/>
-      <c r="C125" s="226"/>
-      <c r="D125" s="245"/>
+      <c r="A125" s="219"/>
+      <c r="B125" s="221"/>
+      <c r="C125" s="223"/>
+      <c r="D125" s="208"/>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="224"/>
+      <c r="A126" s="219"/>
       <c r="B126" s="54"/>
-      <c r="C126" s="226"/>
-      <c r="D126" s="245"/>
+      <c r="C126" s="223"/>
+      <c r="D126" s="208"/>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="224"/>
+      <c r="A127" s="219"/>
       <c r="B127" s="54"/>
-      <c r="C127" s="226"/>
-      <c r="D127" s="245"/>
+      <c r="C127" s="223"/>
+      <c r="D127" s="208"/>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="224"/>
+      <c r="A128" s="219"/>
       <c r="B128" s="54"/>
-      <c r="C128" s="226"/>
-      <c r="D128" s="245"/>
+      <c r="C128" s="223"/>
+      <c r="D128" s="208"/>
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="224"/>
+      <c r="A129" s="219"/>
       <c r="B129" s="54"/>
-      <c r="C129" s="226"/>
-      <c r="D129" s="245"/>
+      <c r="C129" s="223"/>
+      <c r="D129" s="208"/>
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="224"/>
+      <c r="A130" s="219"/>
       <c r="B130" s="54"/>
-      <c r="C130" s="226"/>
-      <c r="D130" s="245"/>
+      <c r="C130" s="223"/>
+      <c r="D130" s="208"/>
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="224"/>
+      <c r="A131" s="219"/>
       <c r="B131" s="57"/>
-      <c r="C131" s="227"/>
-      <c r="D131" s="245"/>
+      <c r="C131" s="224"/>
+      <c r="D131" s="208"/>
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="224"/>
+      <c r="A132" s="219"/>
       <c r="B132" s="50">
         <v>26</v>
       </c>
       <c r="C132" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="D132" s="245"/>
+      <c r="D132" s="208"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="224"/>
-      <c r="B133" s="193"/>
-      <c r="C133" s="225" t="s">
+      <c r="A133" s="219"/>
+      <c r="B133" s="220"/>
+      <c r="C133" s="222" t="s">
         <v>603</v>
       </c>
-      <c r="D133" s="245"/>
+      <c r="D133" s="208"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="224"/>
-      <c r="B134" s="194"/>
-      <c r="C134" s="226"/>
-      <c r="D134" s="245"/>
+      <c r="A134" s="219"/>
+      <c r="B134" s="221"/>
+      <c r="C134" s="223"/>
+      <c r="D134" s="208"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="224"/>
+      <c r="A135" s="219"/>
       <c r="B135" s="54"/>
-      <c r="C135" s="226"/>
-      <c r="D135" s="245"/>
+      <c r="C135" s="223"/>
+      <c r="D135" s="208"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="224"/>
+      <c r="A136" s="219"/>
       <c r="B136" s="54"/>
-      <c r="C136" s="226"/>
-      <c r="D136" s="245"/>
+      <c r="C136" s="223"/>
+      <c r="D136" s="208"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="224"/>
+      <c r="A137" s="219"/>
       <c r="B137" s="54"/>
-      <c r="C137" s="226"/>
-      <c r="D137" s="245"/>
+      <c r="C137" s="223"/>
+      <c r="D137" s="208"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="224"/>
+      <c r="A138" s="219"/>
       <c r="B138" s="54"/>
-      <c r="C138" s="226"/>
-      <c r="D138" s="245"/>
+      <c r="C138" s="223"/>
+      <c r="D138" s="208"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="224"/>
+      <c r="A139" s="219"/>
       <c r="B139" s="54"/>
-      <c r="C139" s="226"/>
-      <c r="D139" s="245"/>
+      <c r="C139" s="223"/>
+      <c r="D139" s="208"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="224"/>
+      <c r="A140" s="219"/>
       <c r="B140" s="57"/>
-      <c r="C140" s="227"/>
-      <c r="D140" s="245"/>
+      <c r="C140" s="224"/>
+      <c r="D140" s="208"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="224"/>
+      <c r="A141" s="219"/>
       <c r="B141" s="50">
         <v>27</v>
       </c>
       <c r="C141" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D141" s="245"/>
+      <c r="D141" s="208"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="224"/>
-      <c r="B142" s="193"/>
-      <c r="C142" s="225" t="s">
+      <c r="A142" s="219"/>
+      <c r="B142" s="220"/>
+      <c r="C142" s="222" t="s">
         <v>604</v>
       </c>
-      <c r="D142" s="245"/>
+      <c r="D142" s="208"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="224"/>
-      <c r="B143" s="194"/>
-      <c r="C143" s="226"/>
-      <c r="D143" s="245"/>
+      <c r="A143" s="219"/>
+      <c r="B143" s="221"/>
+      <c r="C143" s="223"/>
+      <c r="D143" s="208"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="224"/>
+      <c r="A144" s="219"/>
       <c r="B144" s="54"/>
-      <c r="C144" s="226"/>
-      <c r="D144" s="245"/>
+      <c r="C144" s="223"/>
+      <c r="D144" s="208"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="224"/>
+      <c r="A145" s="219"/>
       <c r="B145" s="54"/>
-      <c r="C145" s="226"/>
-      <c r="D145" s="245"/>
+      <c r="C145" s="223"/>
+      <c r="D145" s="208"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="224"/>
+      <c r="A146" s="219"/>
       <c r="B146" s="54"/>
-      <c r="C146" s="226"/>
-      <c r="D146" s="245"/>
+      <c r="C146" s="223"/>
+      <c r="D146" s="208"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="224"/>
+      <c r="A147" s="219"/>
       <c r="B147" s="54"/>
-      <c r="C147" s="226"/>
-      <c r="D147" s="245"/>
+      <c r="C147" s="223"/>
+      <c r="D147" s="208"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="224"/>
+      <c r="A148" s="219"/>
       <c r="B148" s="54"/>
-      <c r="C148" s="226"/>
-      <c r="D148" s="245"/>
+      <c r="C148" s="223"/>
+      <c r="D148" s="208"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="224"/>
+      <c r="A149" s="219"/>
       <c r="B149" s="57"/>
-      <c r="C149" s="227"/>
-      <c r="D149" s="245"/>
+      <c r="C149" s="224"/>
+      <c r="D149" s="208"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="224"/>
+      <c r="A150" s="219"/>
       <c r="B150" s="50">
         <v>28</v>
       </c>
       <c r="C150" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="D150" s="245"/>
-      <c r="E150" s="238" t="s">
+      <c r="D150" s="208"/>
+      <c r="E150" s="203" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="224"/>
-      <c r="B151" s="193"/>
-      <c r="C151" s="225" t="s">
+      <c r="A151" s="219"/>
+      <c r="B151" s="220"/>
+      <c r="C151" s="222" t="s">
         <v>605</v>
       </c>
-      <c r="D151" s="245"/>
-      <c r="E151" s="239"/>
+      <c r="D151" s="208"/>
+      <c r="E151" s="204"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="224"/>
-      <c r="B152" s="194"/>
-      <c r="C152" s="226"/>
-      <c r="D152" s="245"/>
-      <c r="E152" s="239"/>
+      <c r="A152" s="219"/>
+      <c r="B152" s="221"/>
+      <c r="C152" s="223"/>
+      <c r="D152" s="208"/>
+      <c r="E152" s="204"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="224"/>
+      <c r="A153" s="219"/>
       <c r="B153" s="54"/>
-      <c r="C153" s="226"/>
-      <c r="D153" s="245"/>
-      <c r="E153" s="239"/>
+      <c r="C153" s="223"/>
+      <c r="D153" s="208"/>
+      <c r="E153" s="204"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="224"/>
+      <c r="A154" s="219"/>
       <c r="B154" s="54"/>
-      <c r="C154" s="226"/>
-      <c r="D154" s="245"/>
-      <c r="E154" s="239"/>
+      <c r="C154" s="223"/>
+      <c r="D154" s="208"/>
+      <c r="E154" s="204"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="224"/>
+      <c r="A155" s="219"/>
       <c r="B155" s="54"/>
-      <c r="C155" s="226"/>
-      <c r="D155" s="245"/>
-      <c r="E155" s="239"/>
+      <c r="C155" s="223"/>
+      <c r="D155" s="208"/>
+      <c r="E155" s="204"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="224"/>
+      <c r="A156" s="219"/>
       <c r="B156" s="54"/>
-      <c r="C156" s="226"/>
-      <c r="D156" s="245"/>
-      <c r="E156" s="239"/>
+      <c r="C156" s="223"/>
+      <c r="D156" s="208"/>
+      <c r="E156" s="204"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="224"/>
+      <c r="A157" s="219"/>
       <c r="B157" s="54"/>
-      <c r="C157" s="226"/>
-      <c r="D157" s="245"/>
-      <c r="E157" s="239"/>
+      <c r="C157" s="223"/>
+      <c r="D157" s="208"/>
+      <c r="E157" s="204"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="224"/>
+      <c r="A158" s="219"/>
       <c r="B158" s="57"/>
-      <c r="C158" s="227"/>
-      <c r="D158" s="245"/>
-      <c r="E158" s="239"/>
+      <c r="C158" s="224"/>
+      <c r="D158" s="208"/>
+      <c r="E158" s="204"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="224"/>
+      <c r="A159" s="219"/>
       <c r="B159" s="50">
         <v>29</v>
       </c>
       <c r="C159" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="D159" s="245"/>
+      <c r="D159" s="208"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="224"/>
-      <c r="B160" s="193"/>
-      <c r="C160" s="225" t="s">
+      <c r="A160" s="219"/>
+      <c r="B160" s="220"/>
+      <c r="C160" s="222" t="s">
         <v>606</v>
       </c>
-      <c r="D160" s="245"/>
+      <c r="D160" s="208"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="224"/>
-      <c r="B161" s="194"/>
-      <c r="C161" s="226"/>
-      <c r="D161" s="245"/>
+      <c r="A161" s="219"/>
+      <c r="B161" s="221"/>
+      <c r="C161" s="223"/>
+      <c r="D161" s="208"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="224"/>
+      <c r="A162" s="219"/>
       <c r="B162" s="54"/>
-      <c r="C162" s="226"/>
-      <c r="D162" s="245"/>
+      <c r="C162" s="223"/>
+      <c r="D162" s="208"/>
     </row>
     <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="224"/>
+      <c r="A163" s="219"/>
       <c r="B163" s="54"/>
-      <c r="C163" s="227"/>
-      <c r="D163" s="245"/>
+      <c r="C163" s="224"/>
+      <c r="D163" s="208"/>
     </row>
     <row r="164" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="224"/>
+      <c r="A164" s="219"/>
       <c r="B164" s="50">
         <v>30</v>
       </c>
       <c r="C164" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="D164" s="247" t="s">
+      <c r="D164" s="210" t="s">
         <v>595</v>
       </c>
-      <c r="E164" s="246" t="s">
+      <c r="E164" s="209" t="s">
         <v>601</v>
       </c>
       <c r="F164" s="102" t="s">
@@ -30386,20 +30697,20 @@
       <c r="K164" s="103"/>
     </row>
     <row r="165" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="224"/>
+      <c r="A165" s="219"/>
       <c r="B165" s="58"/>
-      <c r="C165" s="228" t="s">
+      <c r="C165" s="225" t="s">
         <v>607</v>
       </c>
-      <c r="D165" s="247"/>
-      <c r="E165" s="246"/>
+      <c r="D165" s="210"/>
+      <c r="E165" s="209"/>
     </row>
     <row r="166" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="224"/>
+      <c r="A166" s="219"/>
       <c r="B166" s="59"/>
-      <c r="C166" s="229"/>
-      <c r="D166" s="247"/>
-      <c r="E166" s="246"/>
+      <c r="C166" s="226"/>
+      <c r="D166" s="210"/>
+      <c r="E166" s="209"/>
       <c r="F166" s="100" t="s">
         <v>382</v>
       </c>
@@ -30412,11 +30723,11 @@
       <c r="K166" s="104"/>
     </row>
     <row r="167" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="224"/>
+      <c r="A167" s="219"/>
       <c r="B167" s="54"/>
-      <c r="C167" s="230"/>
-      <c r="D167" s="247"/>
-      <c r="E167" s="246"/>
+      <c r="C167" s="227"/>
+      <c r="D167" s="210"/>
+      <c r="E167" s="209"/>
       <c r="F167" s="100" t="s">
         <v>390</v>
       </c>
@@ -30429,7 +30740,7 @@
       <c r="K167" s="104"/>
     </row>
     <row r="168" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="231" t="s">
+      <c r="A168" s="211" t="s">
         <v>608</v>
       </c>
       <c r="B168" s="50">
@@ -30438,62 +30749,62 @@
       <c r="C168" s="50" t="s">
         <v>338</v>
       </c>
-      <c r="D168" s="246" t="s">
+      <c r="D168" s="209" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="231"/>
-      <c r="B169" s="232"/>
-      <c r="C169" s="234" t="s">
+      <c r="A169" s="211"/>
+      <c r="B169" s="212"/>
+      <c r="C169" s="214" t="s">
         <v>609</v>
       </c>
-      <c r="D169" s="246"/>
+      <c r="D169" s="209"/>
     </row>
     <row r="170" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="231"/>
-      <c r="B170" s="233"/>
-      <c r="C170" s="235"/>
-      <c r="D170" s="246"/>
+      <c r="A170" s="211"/>
+      <c r="B170" s="213"/>
+      <c r="C170" s="215"/>
+      <c r="D170" s="209"/>
     </row>
     <row r="171" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="231"/>
+      <c r="A171" s="211"/>
       <c r="B171" s="54"/>
-      <c r="C171" s="235"/>
-      <c r="D171" s="246"/>
+      <c r="C171" s="215"/>
+      <c r="D171" s="209"/>
     </row>
     <row r="172" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="231"/>
+      <c r="A172" s="211"/>
       <c r="B172" s="54"/>
-      <c r="C172" s="235"/>
-      <c r="D172" s="246"/>
+      <c r="C172" s="215"/>
+      <c r="D172" s="209"/>
     </row>
     <row r="173" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="231"/>
+      <c r="A173" s="211"/>
       <c r="B173" s="54"/>
-      <c r="C173" s="235"/>
-      <c r="D173" s="246"/>
+      <c r="C173" s="215"/>
+      <c r="D173" s="209"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="231"/>
+      <c r="A174" s="211"/>
       <c r="B174" s="54"/>
-      <c r="C174" s="235"/>
-      <c r="D174" s="246"/>
+      <c r="C174" s="215"/>
+      <c r="D174" s="209"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="231"/>
+      <c r="A175" s="211"/>
       <c r="B175" s="54"/>
-      <c r="C175" s="235"/>
-      <c r="D175" s="246"/>
+      <c r="C175" s="215"/>
+      <c r="D175" s="209"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="231"/>
+      <c r="A176" s="211"/>
       <c r="B176" s="57"/>
-      <c r="C176" s="236"/>
-      <c r="D176" s="246"/>
+      <c r="C176" s="216"/>
+      <c r="D176" s="209"/>
     </row>
     <row r="177" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="237" t="s">
+      <c r="A177" s="217" t="s">
         <v>567</v>
       </c>
       <c r="B177" s="50">
@@ -30502,121 +30813,121 @@
       <c r="C177" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="D177" s="238" t="s">
+      <c r="D177" s="203" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="237"/>
-      <c r="B178" s="232"/>
-      <c r="C178" s="234" t="s">
+      <c r="A178" s="217"/>
+      <c r="B178" s="212"/>
+      <c r="C178" s="214" t="s">
         <v>610</v>
       </c>
-      <c r="D178" s="239"/>
+      <c r="D178" s="204"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="237"/>
-      <c r="B179" s="233"/>
-      <c r="C179" s="235"/>
-      <c r="D179" s="239"/>
+      <c r="A179" s="217"/>
+      <c r="B179" s="213"/>
+      <c r="C179" s="215"/>
+      <c r="D179" s="204"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="237"/>
+      <c r="A180" s="217"/>
       <c r="B180" s="54"/>
-      <c r="C180" s="235"/>
-      <c r="D180" s="239"/>
+      <c r="C180" s="215"/>
+      <c r="D180" s="204"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="237"/>
+      <c r="A181" s="217"/>
       <c r="B181" s="54"/>
-      <c r="C181" s="235"/>
-      <c r="D181" s="239"/>
+      <c r="C181" s="215"/>
+      <c r="D181" s="204"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="237"/>
+      <c r="A182" s="217"/>
       <c r="B182" s="54"/>
-      <c r="C182" s="235"/>
-      <c r="D182" s="239"/>
+      <c r="C182" s="215"/>
+      <c r="D182" s="204"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="237"/>
+      <c r="A183" s="217"/>
       <c r="B183" s="54"/>
-      <c r="C183" s="235"/>
-      <c r="D183" s="239"/>
+      <c r="C183" s="215"/>
+      <c r="D183" s="204"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="237"/>
+      <c r="A184" s="217"/>
       <c r="B184" s="54"/>
-      <c r="C184" s="235"/>
-      <c r="D184" s="239"/>
+      <c r="C184" s="215"/>
+      <c r="D184" s="204"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="237"/>
+      <c r="A185" s="217"/>
       <c r="B185" s="54"/>
-      <c r="C185" s="235"/>
-      <c r="D185" s="239"/>
+      <c r="C185" s="215"/>
+      <c r="D185" s="204"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="237"/>
+      <c r="A186" s="217"/>
       <c r="B186" s="50">
         <v>33</v>
       </c>
       <c r="C186" s="50" t="s">
         <v>611</v>
       </c>
-      <c r="D186" s="238" t="s">
+      <c r="D186" s="203" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="237"/>
-      <c r="B187" s="232"/>
-      <c r="C187" s="235" t="s">
+      <c r="A187" s="217"/>
+      <c r="B187" s="212"/>
+      <c r="C187" s="215" t="s">
         <v>612</v>
       </c>
-      <c r="D187" s="239"/>
+      <c r="D187" s="204"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="237"/>
-      <c r="B188" s="233"/>
-      <c r="C188" s="235"/>
-      <c r="D188" s="239"/>
+      <c r="A188" s="217"/>
+      <c r="B188" s="213"/>
+      <c r="C188" s="215"/>
+      <c r="D188" s="204"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="237"/>
+      <c r="A189" s="217"/>
       <c r="B189" s="54"/>
-      <c r="C189" s="235"/>
-      <c r="D189" s="239"/>
+      <c r="C189" s="215"/>
+      <c r="D189" s="204"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="237"/>
+      <c r="A190" s="217"/>
       <c r="B190" s="54"/>
-      <c r="C190" s="235"/>
-      <c r="D190" s="239"/>
+      <c r="C190" s="215"/>
+      <c r="D190" s="204"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="237"/>
+      <c r="A191" s="217"/>
       <c r="B191" s="54"/>
-      <c r="C191" s="235"/>
-      <c r="D191" s="239"/>
+      <c r="C191" s="215"/>
+      <c r="D191" s="204"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="237"/>
+      <c r="A192" s="217"/>
       <c r="B192" s="54"/>
-      <c r="C192" s="235"/>
-      <c r="D192" s="239"/>
+      <c r="C192" s="215"/>
+      <c r="D192" s="204"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="237"/>
+      <c r="A193" s="217"/>
       <c r="B193" s="54"/>
-      <c r="C193" s="235"/>
-      <c r="D193" s="239"/>
+      <c r="C193" s="215"/>
+      <c r="D193" s="204"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="237"/>
+      <c r="A194" s="217"/>
       <c r="B194" s="57"/>
-      <c r="C194" s="236"/>
-      <c r="D194" s="239"/>
+      <c r="C194" s="216"/>
+      <c r="D194" s="204"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
@@ -30625,6 +30936,91 @@
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A38:A57"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A75"/>
+    <mergeCell ref="C66:C75"/>
+    <mergeCell ref="A88:A122"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C100"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C108:C113"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="A123:A167"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C131"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C149"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C158"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C163"/>
+    <mergeCell ref="C165:C167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C176"/>
+    <mergeCell ref="A177:A194"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C185"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C194"/>
+    <mergeCell ref="D177:D185"/>
+    <mergeCell ref="D186:D194"/>
+    <mergeCell ref="E150:E158"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="D65:D75"/>
+    <mergeCell ref="E107:E113"/>
+    <mergeCell ref="D123:D163"/>
+    <mergeCell ref="D168:D176"/>
+    <mergeCell ref="E164:E167"/>
+    <mergeCell ref="D164:D167"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -30639,91 +31035,6 @@
     <mergeCell ref="D38:D45"/>
     <mergeCell ref="D13:D32"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="D177:D185"/>
-    <mergeCell ref="D186:D194"/>
-    <mergeCell ref="E150:E158"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D65:D75"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="D123:D163"/>
-    <mergeCell ref="D168:D176"/>
-    <mergeCell ref="E164:E167"/>
-    <mergeCell ref="D164:D167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C176"/>
-    <mergeCell ref="A177:A194"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C185"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C194"/>
-    <mergeCell ref="A123:A167"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C131"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C149"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C158"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C163"/>
-    <mergeCell ref="C165:C167"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="A88:A122"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C100"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C108:C113"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A75"/>
-    <mergeCell ref="C66:C75"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A38:A57"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A13:A32"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
